--- a/files/ModifiedPurchaseOrder.xlsx
+++ b/files/ModifiedPurchaseOrder.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="969">
   <si>
     <t>Project Selection options</t>
   </si>
@@ -198,17 +198,16 @@
     <t>ESDC - GG</t>
   </si>
   <si>
-    <t>Seyit tumturk</t>
-  </si>
-  <si>
-    <t>stumturk@ulnooweg.ca</t>
+    <t>seyit</t>
+  </si>
+  <si>
+    <t>set@gmail.com</t>
   </si>
   <si>
     <t>Notes to Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">No notes at the moment. 
-</t>
+    <t>nope</t>
   </si>
   <si>
     <t>Source / Grant</t>
@@ -220,19 +219,19 @@
     <t>HST Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Gimble </t>
+    <t xml:space="preserve">gimble </t>
   </si>
   <si>
     <t>UEC</t>
   </si>
   <si>
-    <t>Science &amp; Innovation</t>
-  </si>
-  <si>
-    <t>Special Events</t>
-  </si>
-  <si>
-    <t>UEC Credit Card</t>
+    <t>CERI</t>
+  </si>
+  <si>
+    <t>Travel - Staff</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
   <si>
     <t>Total HST</t>
@@ -593,7 +592,7 @@
     <t>Grow With The Flow</t>
   </si>
   <si>
-    <t>CERI</t>
+    <t>Science &amp; Innovation</t>
   </si>
   <si>
     <t>Pathways to Engineering</t>
@@ -806,9 +805,6 @@
     <t>5785</t>
   </si>
   <si>
-    <t>Travel - Staff</t>
-  </si>
-  <si>
     <t>Training and Development</t>
   </si>
   <si>
@@ -830,6 +826,9 @@
     <t>5857</t>
   </si>
   <si>
+    <t>Special Events</t>
+  </si>
+  <si>
     <t>5858</t>
   </si>
   <si>
@@ -1296,6 +1295,9 @@
   </si>
   <si>
     <t>Tumturk</t>
+  </si>
+  <si>
+    <t>stumturk@ulnooweg.ca</t>
   </si>
   <si>
     <t>Shane</t>
@@ -6467,57 +6469,57 @@
         <v>Seyit Tumturk</v>
       </c>
       <c r="D45" s="332" t="s">
-        <v>54</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>Shane Noel</v>
       </c>
       <c r="D46" s="332" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>Thadakorn Narakol</v>
       </c>
       <c r="D47" s="332" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>Tiffany Morris</v>
       </c>
       <c r="D48" s="332" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s">
         <v>351</v>
@@ -6527,37 +6529,37 @@
         <v>Tracy Marshall</v>
       </c>
       <c r="D49" s="332" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>Vaibhav Vaibhav</v>
       </c>
       <c r="D50" s="332" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v>Vanessa Lilly</v>
       </c>
       <c r="D51" s="332" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -7625,7 +7627,7 @@
         <v>5600</v>
       </c>
       <c r="I1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7641,7 +7643,7 @@
         <v>5610</v>
       </c>
       <c r="I2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7649,7 +7651,7 @@
         <v>5617</v>
       </c>
       <c r="B3" s="343" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C3" s="343"/>
       <c r="D3" s="284"/>
@@ -7667,7 +7669,7 @@
         <v>5615</v>
       </c>
       <c r="I4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7683,7 +7685,7 @@
         <v>5620</v>
       </c>
       <c r="I5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7699,7 +7701,7 @@
         <v>5622</v>
       </c>
       <c r="I6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -7715,7 +7717,7 @@
         <v>5624</v>
       </c>
       <c r="I7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -7763,7 +7765,7 @@
         <v>5629</v>
       </c>
       <c r="I10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -7779,7 +7781,7 @@
         <v>5630</v>
       </c>
       <c r="I11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -7859,7 +7861,7 @@
         <v>5644</v>
       </c>
       <c r="I16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -7891,7 +7893,7 @@
         <v>5647</v>
       </c>
       <c r="I18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -7907,7 +7909,7 @@
         <v>5648</v>
       </c>
       <c r="I19" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7923,7 +7925,7 @@
         <v>5651</v>
       </c>
       <c r="I20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -7939,7 +7941,7 @@
         <v>5652</v>
       </c>
       <c r="I21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7955,7 +7957,7 @@
         <v>5662</v>
       </c>
       <c r="I22" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7987,7 +7989,7 @@
         <v>5690</v>
       </c>
       <c r="I24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -8003,7 +8005,7 @@
         <v>5691</v>
       </c>
       <c r="I25" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -8019,7 +8021,7 @@
         <v>5693</v>
       </c>
       <c r="I26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -8051,7 +8053,7 @@
         <v>5700</v>
       </c>
       <c r="I28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -8059,7 +8061,7 @@
         <v>5783</v>
       </c>
       <c r="B29" s="345" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="345"/>
       <c r="D29" s="284"/>
@@ -8067,7 +8069,7 @@
         <v>5708</v>
       </c>
       <c r="I29" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -8083,7 +8085,7 @@
         <v>5710</v>
       </c>
       <c r="I30" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -8091,7 +8093,7 @@
         <v>5785</v>
       </c>
       <c r="B31" s="345" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="C31" s="345"/>
       <c r="D31" s="284"/>
@@ -8099,7 +8101,7 @@
         <v>5720</v>
       </c>
       <c r="I31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8107,7 +8109,7 @@
         <v>5789</v>
       </c>
       <c r="B32" s="343" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="343"/>
       <c r="D32" s="284"/>
@@ -8117,7 +8119,7 @@
         <v>5790</v>
       </c>
       <c r="B33" s="345" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="345"/>
       <c r="D33" s="284"/>
@@ -8141,7 +8143,7 @@
         <v>5765</v>
       </c>
       <c r="I34" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -8149,7 +8151,7 @@
         <v>5857</v>
       </c>
       <c r="B35" s="345" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="C35" s="345"/>
       <c r="D35" s="284"/>
@@ -8157,7 +8159,7 @@
         <v>5768</v>
       </c>
       <c r="I35" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -8185,7 +8187,7 @@
         <v>5773</v>
       </c>
       <c r="I37" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -8209,7 +8211,7 @@
         <v>5783</v>
       </c>
       <c r="I39" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -8233,7 +8235,7 @@
         <v>5785</v>
       </c>
       <c r="I41" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -8245,7 +8247,7 @@
         <v>5795</v>
       </c>
       <c r="I42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -8257,7 +8259,7 @@
         <v>5797</v>
       </c>
       <c r="I43" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8269,7 +8271,7 @@
         <v>5800</v>
       </c>
       <c r="I44" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -8281,7 +8283,7 @@
         <v>5810</v>
       </c>
       <c r="I45" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -8293,7 +8295,7 @@
         <v>5910</v>
       </c>
       <c r="I46" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -8305,7 +8307,7 @@
         <v>5911</v>
       </c>
       <c r="I47" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8585,28 +8587,28 @@
         <v>251</v>
       </c>
       <c r="I85" s="285" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="285" t="s">
+        <v>253</v>
+      </c>
+      <c r="I86" s="285" t="s">
         <v>254</v>
-      </c>
-      <c r="I86" s="285" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87" s="285" t="s">
+        <v>255</v>
+      </c>
+      <c r="I87" s="285" t="s">
         <v>256</v>
-      </c>
-      <c r="I87" s="285" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88" s="285" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I88" s="285" t="s">
         <v>226</v>
@@ -8614,10 +8616,10 @@
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" s="285" t="s">
+        <v>258</v>
+      </c>
+      <c r="I89" s="285" t="s">
         <v>259</v>
-      </c>
-      <c r="I89" s="285" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
@@ -8658,10 +8660,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>52</v>
@@ -8720,10 +8722,10 @@
         <v>81</v>
       </c>
       <c r="N2" s="336" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -8740,10 +8742,10 @@
         <v>172</v>
       </c>
       <c r="N3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8817,7 +8819,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="337" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8825,7 +8827,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8849,7 +8851,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -10255,10 +10257,10 @@
         <v>64</v>
       </c>
       <c r="H12" s="66">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I12" s="67">
-        <v>34.99</v>
+        <v>11</v>
       </c>
       <c r="J12" s="67">
         <f>I12*H12*0.15</f>
@@ -12652,17 +12654,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C28" si="0">A2&amp;" "&amp;B2</f>
         <v>Alexa Metallic</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G2" t="s">
         <v>294</v>
@@ -12698,37 +12700,37 @@
         <v>Andrea Durfee</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Blaise Eygun</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Carrie Amero</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12743,7 +12745,7 @@
         <v>Chris Fitzner</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12758,37 +12760,37 @@
         <v>Christopher Seymour</v>
       </c>
       <c r="D8" s="332" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Claire Landis</v>
       </c>
       <c r="D9" s="332" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Dami Bankole</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12803,37 +12805,37 @@
         <v>Dawn Matheson</v>
       </c>
       <c r="D11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Emma MacDonald</v>
       </c>
       <c r="D12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Eve MacDonald</v>
       </c>
       <c r="D13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,22 +12850,22 @@
         <v>Holly Griffiths</v>
       </c>
       <c r="D14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Jalisa Charles</v>
       </c>
       <c r="D15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -12878,37 +12880,37 @@
         <v>Jocelyn Marshall</v>
       </c>
       <c r="D16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Levi Morrison</v>
       </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Marina Muberwa</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -12916,14 +12918,14 @@
         <v>388</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Matthew Hill</v>
       </c>
       <c r="D19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -12938,7 +12940,7 @@
         <v>Matthew Kneen-Teed</v>
       </c>
       <c r="D20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -12953,7 +12955,7 @@
         <v>Matthew Paul</v>
       </c>
       <c r="D21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -12968,7 +12970,7 @@
         <v>Megan Wright</v>
       </c>
       <c r="D22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -12983,7 +12985,7 @@
         <v>Samson Tang</v>
       </c>
       <c r="D23" s="332" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -12998,67 +13000,67 @@
         <v>Seyit Tumturk</v>
       </c>
       <c r="D24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>Thadakorn Narakol</v>
       </c>
       <c r="D25" s="332" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>Vaibhav Vaibhav</v>
       </c>
       <c r="D26" s="332" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>Vanessa Lilly</v>
       </c>
       <c r="D27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>Vincenzo Corelli</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -13113,17 +13115,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C28" si="0">A2&amp;" "&amp;B2</f>
         <v>Alexa Metallic</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G2" t="s">
         <v>294</v>
@@ -13159,37 +13161,37 @@
         <v>Andrea Durfee</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Blaise Eygun</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Carrie Amero</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13204,7 +13206,7 @@
         <v>Chris Fitzner</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13219,37 +13221,37 @@
         <v>Christopher Seymour</v>
       </c>
       <c r="D8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Claire Landis</v>
       </c>
       <c r="D9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Dami Bankole</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13264,37 +13266,37 @@
         <v>Dawn Matheson</v>
       </c>
       <c r="D11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Emma MacDonald</v>
       </c>
       <c r="D12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Eve MacDonald</v>
       </c>
       <c r="D13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13309,22 +13311,22 @@
         <v>Holly Griffiths</v>
       </c>
       <c r="D14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Jalisa Charles</v>
       </c>
       <c r="D15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13339,37 +13341,37 @@
         <v>Jocelyn Marshall</v>
       </c>
       <c r="D16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Levi Morrison</v>
       </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Marina Muberwa</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -13377,14 +13379,14 @@
         <v>388</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Matthew Hill</v>
       </c>
       <c r="D19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13399,7 +13401,7 @@
         <v>Matthew Kneen-Teed</v>
       </c>
       <c r="D20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -13414,7 +13416,7 @@
         <v>Matthew Paul</v>
       </c>
       <c r="D21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -13429,7 +13431,7 @@
         <v>Megan Wright</v>
       </c>
       <c r="D22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -13444,7 +13446,7 @@
         <v>Samson Tang</v>
       </c>
       <c r="D23" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13459,67 +13461,67 @@
         <v>Seyit Tumturk</v>
       </c>
       <c r="D24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>Thadakorn Narakol</v>
       </c>
       <c r="D25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>Vaibhav Vaibhav</v>
       </c>
       <c r="D26" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>Vanessa Lilly</v>
       </c>
       <c r="D27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>Vincenzo Corelli</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -18114,7 +18116,7 @@
         <v>251</v>
       </c>
       <c r="I30" s="285" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="J30" s="285" t="s">
         <v>191</v>
@@ -18125,15 +18127,15 @@
         <v>5783</v>
       </c>
       <c r="B31" s="284" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="284"/>
       <c r="D31" s="284"/>
       <c r="H31" s="285" t="s">
+        <v>253</v>
+      </c>
+      <c r="I31" s="285" t="s">
         <v>254</v>
-      </c>
-      <c r="I31" s="285" t="s">
-        <v>255</v>
       </c>
       <c r="J31" s="285" t="s">
         <v>194</v>
@@ -18149,10 +18151,10 @@
       <c r="C32" s="284"/>
       <c r="D32" s="284"/>
       <c r="H32" s="285" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="285" t="s">
         <v>256</v>
-      </c>
-      <c r="I32" s="285" t="s">
-        <v>257</v>
       </c>
       <c r="J32" s="285" t="s">
         <v>231</v>
@@ -18163,12 +18165,12 @@
         <v>5785</v>
       </c>
       <c r="B33" s="284" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="C33" s="284"/>
       <c r="D33" s="284"/>
       <c r="H33" s="285" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I33" s="285" t="s">
         <v>226</v>
@@ -18182,15 +18184,15 @@
         <v>5789</v>
       </c>
       <c r="B34" s="284" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="284"/>
       <c r="D34" s="284"/>
       <c r="H34" s="285" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="285" t="s">
         <v>259</v>
-      </c>
-      <c r="I34" s="285" t="s">
-        <v>63</v>
       </c>
       <c r="J34" s="285" t="s">
         <v>194</v>
@@ -18201,7 +18203,7 @@
         <v>5790</v>
       </c>
       <c r="B35" s="289" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C35" s="289"/>
       <c r="D35" s="289"/>
@@ -23448,7 +23450,7 @@
         <v>4028</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>61</v>
@@ -23459,7 +23461,7 @@
         <v>1010</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>61</v>
@@ -23522,7 +23524,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="357" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B1" s="357"/>
       <c r="C1" s="357"/>
@@ -23535,7 +23537,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="359" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B2" s="359"/>
       <c r="C2" s="359"/>
@@ -23560,13 +23562,13 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="360"/>
       <c r="B4" s="361" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C4" s="362" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D4" s="361" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E4" s="358"/>
       <c r="F4" s="358"/>
@@ -23587,7 +23589,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="359" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -23637,10 +23639,10 @@
         <v>1000</v>
       </c>
       <c r="C10" s="359" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D10" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E10" s="358"/>
       <c r="F10" s="358"/>
@@ -23654,10 +23656,10 @@
         <v>1005</v>
       </c>
       <c r="C11" s="360" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D11" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E11" s="358"/>
       <c r="F11" s="358"/>
@@ -23671,10 +23673,10 @@
         <v>1010</v>
       </c>
       <c r="C12" s="360" t="s">
+        <v>534</v>
+      </c>
+      <c r="D12" s="365" t="s">
         <v>533</v>
-      </c>
-      <c r="D12" s="365" t="s">
-        <v>532</v>
       </c>
       <c r="E12" s="358"/>
       <c r="F12" s="358"/>
@@ -23688,10 +23690,10 @@
         <v>1015</v>
       </c>
       <c r="C13" s="360" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D13" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E13" s="358"/>
       <c r="F13" s="358"/>
@@ -23705,10 +23707,10 @@
         <v>1020</v>
       </c>
       <c r="C14" s="360" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D14" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E14" s="358"/>
       <c r="F14" s="358"/>
@@ -23722,10 +23724,10 @@
         <v>1025</v>
       </c>
       <c r="C15" s="360" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D15" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E15" s="358"/>
       <c r="F15" s="358"/>
@@ -23739,10 +23741,10 @@
         <v>1030</v>
       </c>
       <c r="C16" s="360" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D16" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E16" s="358"/>
       <c r="F16" s="358"/>
@@ -23756,10 +23758,10 @@
         <v>1035</v>
       </c>
       <c r="C17" s="360" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D17" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E17" s="358"/>
       <c r="F17" s="358"/>
@@ -23773,10 +23775,10 @@
         <v>1040</v>
       </c>
       <c r="C18" s="360" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D18" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E18" s="358"/>
       <c r="F18" s="358"/>
@@ -23790,10 +23792,10 @@
         <v>1045</v>
       </c>
       <c r="C19" s="360" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D19" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E19" s="358"/>
       <c r="F19" s="358"/>
@@ -23807,10 +23809,10 @@
         <v>1050</v>
       </c>
       <c r="C20" s="360" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D20" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E20" s="358"/>
       <c r="F20" s="358"/>
@@ -23824,10 +23826,10 @@
         <v>1051</v>
       </c>
       <c r="C21" s="360" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D21" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E21" s="358"/>
       <c r="F21" s="358"/>
@@ -23841,10 +23843,10 @@
         <v>1055</v>
       </c>
       <c r="C22" s="360" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D22" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E22" s="358"/>
       <c r="F22" s="358"/>
@@ -23858,10 +23860,10 @@
         <v>1056</v>
       </c>
       <c r="C23" s="360" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D23" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E23" s="358"/>
       <c r="F23" s="358"/>
@@ -23875,10 +23877,10 @@
         <v>1057</v>
       </c>
       <c r="C24" s="360" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D24" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E24" s="358"/>
       <c r="F24" s="358"/>
@@ -23892,10 +23894,10 @@
         <v>1060</v>
       </c>
       <c r="C25" s="360" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D25" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E25" s="358"/>
       <c r="F25" s="358"/>
@@ -23909,10 +23911,10 @@
         <v>1061</v>
       </c>
       <c r="C26" s="360" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D26" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E26" s="358"/>
       <c r="F26" s="358"/>
@@ -23926,10 +23928,10 @@
         <v>1062</v>
       </c>
       <c r="C27" s="360" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D27" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E27" s="358"/>
       <c r="F27" s="358"/>
@@ -23943,10 +23945,10 @@
         <v>1063</v>
       </c>
       <c r="C28" s="360" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D28" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E28" s="358"/>
       <c r="F28" s="358"/>
@@ -23960,10 +23962,10 @@
         <v>1064</v>
       </c>
       <c r="C29" s="360" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D29" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E29" s="358"/>
       <c r="F29" s="358"/>
@@ -23977,10 +23979,10 @@
         <v>1065</v>
       </c>
       <c r="C30" s="360" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D30" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E30" s="358"/>
       <c r="F30" s="358"/>
@@ -23994,10 +23996,10 @@
         <v>1066</v>
       </c>
       <c r="C31" s="360" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D31" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E31" s="358"/>
       <c r="F31" s="358"/>
@@ -24011,10 +24013,10 @@
         <v>1068</v>
       </c>
       <c r="C32" s="360" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D32" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E32" s="358"/>
       <c r="F32" s="358"/>
@@ -24028,10 +24030,10 @@
         <v>1070</v>
       </c>
       <c r="C33" s="360" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D33" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E33" s="358"/>
       <c r="F33" s="358"/>
@@ -24045,10 +24047,10 @@
         <v>1071</v>
       </c>
       <c r="C34" s="360" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D34" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E34" s="358"/>
       <c r="F34" s="358"/>
@@ -24062,10 +24064,10 @@
         <v>1090</v>
       </c>
       <c r="C35" s="359" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D35" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E35" s="358"/>
       <c r="F35" s="358"/>
@@ -24090,10 +24092,10 @@
         <v>1100</v>
       </c>
       <c r="C37" s="359" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D37" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E37" s="358"/>
       <c r="F37" s="358"/>
@@ -24107,10 +24109,10 @@
         <v>1105</v>
       </c>
       <c r="C38" s="360" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D38" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E38" s="358"/>
       <c r="F38" s="358"/>
@@ -24124,10 +24126,10 @@
         <v>1106</v>
       </c>
       <c r="C39" s="360" t="s">
+        <v>562</v>
+      </c>
+      <c r="D39" s="365" t="s">
         <v>561</v>
-      </c>
-      <c r="D39" s="365" t="s">
-        <v>560</v>
       </c>
       <c r="E39" s="358"/>
       <c r="F39" s="358"/>
@@ -24141,10 +24143,10 @@
         <v>1107</v>
       </c>
       <c r="C40" s="360" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D40" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E40" s="358"/>
       <c r="F40" s="358"/>
@@ -24158,10 +24160,10 @@
         <v>1108</v>
       </c>
       <c r="C41" s="360" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D41" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E41" s="358"/>
       <c r="F41" s="358"/>
@@ -24175,10 +24177,10 @@
         <v>1109</v>
       </c>
       <c r="C42" s="360" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D42" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E42" s="358"/>
       <c r="F42" s="358"/>
@@ -24192,10 +24194,10 @@
         <v>1110</v>
       </c>
       <c r="C43" s="360" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D43" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E43" s="358"/>
       <c r="F43" s="358"/>
@@ -24209,10 +24211,10 @@
         <v>1115</v>
       </c>
       <c r="C44" s="360" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D44" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E44" s="358"/>
       <c r="F44" s="358"/>
@@ -24226,10 +24228,10 @@
         <v>1116</v>
       </c>
       <c r="C45" s="360" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D45" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E45" s="358"/>
       <c r="F45" s="358"/>
@@ -24243,10 +24245,10 @@
         <v>1117</v>
       </c>
       <c r="C46" s="360" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D46" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E46" s="358"/>
       <c r="F46" s="358"/>
@@ -24260,10 +24262,10 @@
         <v>1120</v>
       </c>
       <c r="C47" s="360" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D47" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E47" s="358"/>
       <c r="F47" s="358"/>
@@ -24277,10 +24279,10 @@
         <v>1125</v>
       </c>
       <c r="C48" s="360" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D48" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E48" s="358"/>
       <c r="F48" s="358"/>
@@ -24294,10 +24296,10 @@
         <v>1130</v>
       </c>
       <c r="C49" s="360" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D49" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E49" s="358"/>
       <c r="F49" s="358"/>
@@ -24311,10 +24313,10 @@
         <v>1135</v>
       </c>
       <c r="C50" s="360" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D50" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E50" s="358"/>
       <c r="F50" s="358"/>
@@ -24328,10 +24330,10 @@
         <v>1139</v>
       </c>
       <c r="C51" s="360" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D51" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E51" s="358"/>
       <c r="F51" s="358"/>
@@ -24345,10 +24347,10 @@
         <v>1140</v>
       </c>
       <c r="C52" s="360" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D52" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E52" s="358"/>
       <c r="F52" s="358"/>
@@ -24362,10 +24364,10 @@
         <v>1141</v>
       </c>
       <c r="C53" s="360" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D53" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E53" s="358"/>
       <c r="F53" s="358"/>
@@ -24379,10 +24381,10 @@
         <v>1143</v>
       </c>
       <c r="C54" s="360" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D54" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E54" s="358"/>
       <c r="F54" s="358"/>
@@ -24396,10 +24398,10 @@
         <v>1145</v>
       </c>
       <c r="C55" s="360" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D55" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E55" s="358"/>
       <c r="F55" s="358"/>
@@ -24413,10 +24415,10 @@
         <v>1190</v>
       </c>
       <c r="C56" s="360" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D56" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E56" s="358"/>
       <c r="F56" s="358"/>
@@ -24430,10 +24432,10 @@
         <v>1245</v>
       </c>
       <c r="C57" s="360" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D57" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E57" s="358"/>
       <c r="F57" s="358"/>
@@ -24447,10 +24449,10 @@
         <v>1246</v>
       </c>
       <c r="C58" s="360" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D58" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E58" s="358"/>
       <c r="F58" s="358"/>
@@ -24464,10 +24466,10 @@
         <v>1247</v>
       </c>
       <c r="C59" s="360" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D59" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E59" s="358"/>
       <c r="F59" s="358"/>
@@ -24481,10 +24483,10 @@
         <v>1248</v>
       </c>
       <c r="C60" s="360" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D60" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E60" s="358"/>
       <c r="F60" s="358"/>
@@ -24498,10 +24500,10 @@
         <v>1249</v>
       </c>
       <c r="C61" s="360" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D61" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E61" s="358"/>
       <c r="F61" s="358"/>
@@ -24515,10 +24517,10 @@
         <v>1250</v>
       </c>
       <c r="C62" s="360" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D62" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E62" s="358"/>
       <c r="F62" s="358"/>
@@ -24532,10 +24534,10 @@
         <v>1251</v>
       </c>
       <c r="C63" s="360" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D63" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E63" s="358"/>
       <c r="F63" s="358"/>
@@ -24549,10 +24551,10 @@
         <v>1252</v>
       </c>
       <c r="C64" s="360" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D64" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E64" s="358"/>
       <c r="F64" s="358"/>
@@ -24566,10 +24568,10 @@
         <v>1253</v>
       </c>
       <c r="C65" s="360" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D65" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E65" s="358"/>
       <c r="F65" s="358"/>
@@ -24583,10 +24585,10 @@
         <v>1254</v>
       </c>
       <c r="C66" s="360" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D66" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E66" s="358"/>
       <c r="F66" s="358"/>
@@ -24600,10 +24602,10 @@
         <v>1255</v>
       </c>
       <c r="C67" s="360" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D67" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E67" s="358"/>
       <c r="F67" s="358"/>
@@ -24617,10 +24619,10 @@
         <v>1256</v>
       </c>
       <c r="C68" s="360" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D68" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E68" s="358"/>
       <c r="F68" s="358"/>
@@ -24634,10 +24636,10 @@
         <v>1257</v>
       </c>
       <c r="C69" s="360" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D69" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E69" s="358"/>
       <c r="F69" s="358"/>
@@ -24651,10 +24653,10 @@
         <v>1258</v>
       </c>
       <c r="C70" s="360" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D70" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E70" s="358"/>
       <c r="F70" s="358"/>
@@ -24668,10 +24670,10 @@
         <v>1260</v>
       </c>
       <c r="C71" s="360" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D71" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E71" s="358"/>
       <c r="F71" s="358"/>
@@ -24685,10 +24687,10 @@
         <v>1261</v>
       </c>
       <c r="C72" s="360" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D72" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E72" s="358"/>
       <c r="F72" s="358"/>
@@ -24702,10 +24704,10 @@
         <v>1263</v>
       </c>
       <c r="C73" s="360" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D73" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E73" s="358"/>
       <c r="F73" s="358"/>
@@ -24719,10 +24721,10 @@
         <v>1270</v>
       </c>
       <c r="C74" s="360" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D74" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E74" s="358"/>
       <c r="F74" s="358"/>
@@ -24736,10 +24738,10 @@
         <v>1275</v>
       </c>
       <c r="C75" s="360" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D75" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E75" s="358"/>
       <c r="F75" s="358"/>
@@ -24753,10 +24755,10 @@
         <v>1280</v>
       </c>
       <c r="C76" s="360" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D76" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E76" s="358"/>
       <c r="F76" s="358"/>
@@ -24770,10 +24772,10 @@
         <v>1281</v>
       </c>
       <c r="C77" s="360" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D77" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E77" s="358"/>
       <c r="F77" s="358"/>
@@ -24787,10 +24789,10 @@
         <v>1282</v>
       </c>
       <c r="C78" s="360" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D78" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E78" s="358"/>
       <c r="F78" s="358"/>
@@ -24804,10 +24806,10 @@
         <v>1283</v>
       </c>
       <c r="C79" s="360" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D79" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E79" s="358"/>
       <c r="F79" s="358"/>
@@ -24821,10 +24823,10 @@
         <v>1284</v>
       </c>
       <c r="C80" s="360" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D80" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E80" s="358"/>
       <c r="F80" s="358"/>
@@ -24838,10 +24840,10 @@
         <v>1285</v>
       </c>
       <c r="C81" s="360" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D81" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E81" s="358"/>
       <c r="F81" s="358"/>
@@ -24855,10 +24857,10 @@
         <v>1287</v>
       </c>
       <c r="C82" s="360" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D82" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E82" s="358"/>
       <c r="F82" s="358"/>
@@ -24872,10 +24874,10 @@
         <v>1288</v>
       </c>
       <c r="C83" s="360" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D83" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E83" s="358"/>
       <c r="F83" s="358"/>
@@ -24889,10 +24891,10 @@
         <v>1289</v>
       </c>
       <c r="C84" s="360" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D84" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E84" s="358"/>
       <c r="F84" s="358"/>
@@ -24906,10 +24908,10 @@
         <v>1290</v>
       </c>
       <c r="C85" s="360" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D85" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E85" s="358"/>
       <c r="F85" s="358"/>
@@ -24923,10 +24925,10 @@
         <v>1300</v>
       </c>
       <c r="C86" s="360" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D86" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E86" s="358"/>
       <c r="F86" s="358"/>
@@ -24940,10 +24942,10 @@
         <v>1325</v>
       </c>
       <c r="C87" s="360" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D87" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E87" s="358"/>
       <c r="F87" s="358"/>
@@ -24957,10 +24959,10 @@
         <v>1350</v>
       </c>
       <c r="C88" s="360" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D88" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E88" s="358"/>
       <c r="F88" s="358"/>
@@ -24974,10 +24976,10 @@
         <v>1351</v>
       </c>
       <c r="C89" s="360" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D89" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E89" s="358"/>
       <c r="F89" s="358"/>
@@ -24991,10 +24993,10 @@
         <v>1352</v>
       </c>
       <c r="C90" s="360" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D90" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E90" s="358"/>
       <c r="F90" s="358"/>
@@ -25008,10 +25010,10 @@
         <v>1400</v>
       </c>
       <c r="C91" s="359" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D91" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E91" s="358"/>
       <c r="F91" s="358"/>
@@ -25039,7 +25041,7 @@
         <v>200</v>
       </c>
       <c r="D93" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E93" s="358"/>
       <c r="F93" s="358"/>
@@ -25053,10 +25055,10 @@
         <v>1810</v>
       </c>
       <c r="C94" s="360" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D94" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E94" s="358"/>
       <c r="F94" s="358"/>
@@ -25070,10 +25072,10 @@
         <v>1815</v>
       </c>
       <c r="C95" s="360" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D95" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E95" s="358"/>
       <c r="F95" s="358"/>
@@ -25087,10 +25089,10 @@
         <v>1818</v>
       </c>
       <c r="C96" s="360" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D96" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E96" s="358"/>
       <c r="F96" s="358"/>
@@ -25104,10 +25106,10 @@
         <v>1820</v>
       </c>
       <c r="C97" s="360" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D97" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E97" s="358"/>
       <c r="F97" s="358"/>
@@ -25121,10 +25123,10 @@
         <v>1825</v>
       </c>
       <c r="C98" s="360" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D98" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E98" s="358"/>
       <c r="F98" s="358"/>
@@ -25138,10 +25140,10 @@
         <v>1830</v>
       </c>
       <c r="C99" s="360" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D99" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E99" s="358"/>
       <c r="F99" s="358"/>
@@ -25155,10 +25157,10 @@
         <v>1840</v>
       </c>
       <c r="C100" s="360" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D100" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E100" s="358"/>
       <c r="F100" s="358"/>
@@ -25172,10 +25174,10 @@
         <v>1845</v>
       </c>
       <c r="C101" s="360" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D101" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E101" s="358"/>
       <c r="F101" s="358"/>
@@ -25189,10 +25191,10 @@
         <v>1848</v>
       </c>
       <c r="C102" s="360" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D102" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E102" s="358"/>
       <c r="F102" s="358"/>
@@ -25206,10 +25208,10 @@
         <v>1850</v>
       </c>
       <c r="C103" s="360" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D103" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E103" s="358"/>
       <c r="F103" s="358"/>
@@ -25223,10 +25225,10 @@
         <v>1855</v>
       </c>
       <c r="C104" s="360" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D104" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E104" s="358"/>
       <c r="F104" s="358"/>
@@ -25240,10 +25242,10 @@
         <v>1858</v>
       </c>
       <c r="C105" s="360" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D105" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E105" s="358"/>
       <c r="F105" s="358"/>
@@ -25257,10 +25259,10 @@
         <v>1860</v>
       </c>
       <c r="C106" s="360" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D106" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E106" s="358"/>
       <c r="F106" s="358"/>
@@ -25274,10 +25276,10 @@
         <v>1865</v>
       </c>
       <c r="C107" s="360" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D107" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E107" s="358"/>
       <c r="F107" s="358"/>
@@ -25291,10 +25293,10 @@
         <v>1870</v>
       </c>
       <c r="C108" s="360" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D108" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E108" s="358"/>
       <c r="F108" s="358"/>
@@ -25308,10 +25310,10 @@
         <v>1871</v>
       </c>
       <c r="C109" s="360" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D109" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E109" s="358"/>
       <c r="F109" s="358"/>
@@ -25325,10 +25327,10 @@
         <v>1872</v>
       </c>
       <c r="C110" s="360" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D110" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E110" s="358"/>
       <c r="F110" s="358"/>
@@ -25342,10 +25344,10 @@
         <v>1873</v>
       </c>
       <c r="C111" s="360" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D111" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E111" s="358"/>
       <c r="F111" s="358"/>
@@ -25359,10 +25361,10 @@
         <v>1880</v>
       </c>
       <c r="C112" s="360" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D112" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E112" s="358"/>
       <c r="F112" s="358"/>
@@ -25376,10 +25378,10 @@
         <v>1890</v>
       </c>
       <c r="C113" s="359" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D113" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E113" s="358"/>
       <c r="F113" s="358"/>
@@ -25426,10 +25428,10 @@
         <v>2000</v>
       </c>
       <c r="C117" s="359" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D117" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E117" s="358"/>
       <c r="F117" s="358"/>
@@ -25443,10 +25445,10 @@
         <v>2100</v>
       </c>
       <c r="C118" s="360" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D118" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E118" s="358"/>
       <c r="F118" s="358"/>
@@ -25460,10 +25462,10 @@
         <v>2110</v>
       </c>
       <c r="C119" s="360" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D119" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E119" s="358"/>
       <c r="F119" s="358"/>
@@ -25477,10 +25479,10 @@
         <v>2115</v>
       </c>
       <c r="C120" s="360" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D120" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E120" s="358"/>
       <c r="F120" s="358"/>
@@ -25494,10 +25496,10 @@
         <v>2120</v>
       </c>
       <c r="C121" s="360" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D121" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E121" s="358"/>
       <c r="F121" s="358"/>
@@ -25511,10 +25513,10 @@
         <v>2130</v>
       </c>
       <c r="C122" s="360" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D122" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E122" s="358"/>
       <c r="F122" s="358"/>
@@ -25528,10 +25530,10 @@
         <v>2131</v>
       </c>
       <c r="C123" s="360" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D123" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E123" s="358"/>
       <c r="F123" s="358"/>
@@ -25545,10 +25547,10 @@
         <v>2133</v>
       </c>
       <c r="C124" s="360" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D124" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E124" s="358"/>
       <c r="F124" s="358"/>
@@ -25562,10 +25564,10 @@
         <v>2135</v>
       </c>
       <c r="C125" s="360" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D125" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E125" s="358"/>
       <c r="F125" s="358"/>
@@ -25579,10 +25581,10 @@
         <v>2136</v>
       </c>
       <c r="C126" s="360" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D126" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E126" s="358"/>
       <c r="F126" s="358"/>
@@ -25596,10 +25598,10 @@
         <v>2140</v>
       </c>
       <c r="C127" s="360" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D127" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E127" s="358"/>
       <c r="F127" s="358"/>
@@ -25613,10 +25615,10 @@
         <v>2170</v>
       </c>
       <c r="C128" s="360" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D128" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E128" s="358"/>
       <c r="F128" s="358"/>
@@ -25630,10 +25632,10 @@
         <v>2180</v>
       </c>
       <c r="C129" s="360" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D129" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E129" s="358"/>
       <c r="F129" s="358"/>
@@ -25647,10 +25649,10 @@
         <v>2185</v>
       </c>
       <c r="C130" s="360" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D130" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E130" s="358"/>
       <c r="F130" s="358"/>
@@ -25664,10 +25666,10 @@
         <v>2190</v>
       </c>
       <c r="C131" s="360" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D131" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E131" s="358"/>
       <c r="F131" s="358"/>
@@ -25681,10 +25683,10 @@
         <v>2195</v>
       </c>
       <c r="C132" s="360" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D132" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E132" s="358"/>
       <c r="F132" s="358"/>
@@ -25698,10 +25700,10 @@
         <v>2212</v>
       </c>
       <c r="C133" s="360" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D133" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E133" s="358"/>
       <c r="F133" s="358"/>
@@ -25715,10 +25717,10 @@
         <v>2213</v>
       </c>
       <c r="C134" s="360" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D134" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E134" s="358"/>
       <c r="F134" s="358"/>
@@ -25732,10 +25734,10 @@
         <v>2214</v>
       </c>
       <c r="C135" s="360" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D135" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E135" s="358"/>
       <c r="F135" s="358"/>
@@ -25749,10 +25751,10 @@
         <v>2220</v>
       </c>
       <c r="C136" s="360" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D136" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E136" s="358"/>
       <c r="F136" s="358"/>
@@ -25766,10 +25768,10 @@
         <v>2230</v>
       </c>
       <c r="C137" s="360" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D137" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E137" s="358"/>
       <c r="F137" s="358"/>
@@ -25783,10 +25785,10 @@
         <v>2240</v>
       </c>
       <c r="C138" s="360" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D138" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E138" s="358"/>
       <c r="F138" s="358"/>
@@ -25800,10 +25802,10 @@
         <v>2250</v>
       </c>
       <c r="C139" s="360" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D139" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E139" s="358"/>
       <c r="F139" s="358"/>
@@ -25817,10 +25819,10 @@
         <v>2372</v>
       </c>
       <c r="C140" s="360" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D140" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E140" s="358"/>
       <c r="F140" s="358"/>
@@ -25834,10 +25836,10 @@
         <v>2375</v>
       </c>
       <c r="C141" s="360" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D141" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E141" s="358"/>
       <c r="F141" s="358"/>
@@ -25851,10 +25853,10 @@
         <v>2385</v>
       </c>
       <c r="C142" s="360" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D142" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E142" s="358"/>
       <c r="F142" s="358"/>
@@ -25868,10 +25870,10 @@
         <v>2390</v>
       </c>
       <c r="C143" s="360" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D143" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E143" s="358"/>
       <c r="F143" s="358"/>
@@ -25885,10 +25887,10 @@
         <v>2395</v>
       </c>
       <c r="C144" s="360" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D144" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E144" s="358"/>
       <c r="F144" s="358"/>
@@ -25902,10 +25904,10 @@
         <v>2410</v>
       </c>
       <c r="C145" s="360" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D145" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E145" s="358"/>
       <c r="F145" s="358"/>
@@ -25919,10 +25921,10 @@
         <v>2411</v>
       </c>
       <c r="C146" s="360" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D146" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E146" s="358"/>
       <c r="F146" s="358"/>
@@ -25936,10 +25938,10 @@
         <v>2412</v>
       </c>
       <c r="C147" s="360" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D147" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E147" s="358"/>
       <c r="F147" s="358"/>
@@ -25953,10 +25955,10 @@
         <v>2415</v>
       </c>
       <c r="C148" s="360" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D148" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E148" s="358"/>
       <c r="F148" s="358"/>
@@ -25970,10 +25972,10 @@
         <v>2417</v>
       </c>
       <c r="C149" s="360" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D149" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E149" s="358"/>
       <c r="F149" s="358"/>
@@ -25987,10 +25989,10 @@
         <v>2420</v>
       </c>
       <c r="C150" s="360" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D150" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E150" s="358"/>
       <c r="F150" s="358"/>
@@ -26004,10 +26006,10 @@
         <v>2422</v>
       </c>
       <c r="C151" s="360" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D151" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E151" s="358"/>
       <c r="F151" s="358"/>
@@ -26021,10 +26023,10 @@
         <v>2425</v>
       </c>
       <c r="C152" s="360" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D152" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E152" s="358"/>
       <c r="F152" s="358"/>
@@ -26038,10 +26040,10 @@
         <v>2430</v>
       </c>
       <c r="C153" s="360" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D153" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E153" s="358"/>
       <c r="F153" s="358"/>
@@ -26055,10 +26057,10 @@
         <v>2459</v>
       </c>
       <c r="C154" s="360" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D154" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E154" s="358"/>
       <c r="F154" s="358"/>
@@ -26072,10 +26074,10 @@
         <v>2460</v>
       </c>
       <c r="C155" s="360" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D155" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E155" s="358"/>
       <c r="F155" s="358"/>
@@ -26089,10 +26091,10 @@
         <v>2461</v>
       </c>
       <c r="C156" s="360" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D156" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E156" s="358"/>
       <c r="F156" s="358"/>
@@ -26106,10 +26108,10 @@
         <v>2462</v>
       </c>
       <c r="C157" s="360" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D157" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E157" s="358"/>
       <c r="F157" s="358"/>
@@ -26123,10 +26125,10 @@
         <v>2470</v>
       </c>
       <c r="C158" s="360" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D158" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E158" s="358"/>
       <c r="F158" s="358"/>
@@ -26140,10 +26142,10 @@
         <v>2471</v>
       </c>
       <c r="C159" s="360" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D159" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E159" s="358"/>
       <c r="F159" s="358"/>
@@ -26157,10 +26159,10 @@
         <v>2472</v>
       </c>
       <c r="C160" s="360" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D160" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E160" s="358"/>
       <c r="F160" s="358"/>
@@ -26174,10 +26176,10 @@
         <v>2473</v>
       </c>
       <c r="C161" s="360" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D161" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E161" s="358"/>
       <c r="F161" s="358"/>
@@ -26191,10 +26193,10 @@
         <v>2474</v>
       </c>
       <c r="C162" s="360" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D162" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E162" s="358"/>
       <c r="F162" s="358"/>
@@ -26208,10 +26210,10 @@
         <v>2475</v>
       </c>
       <c r="C163" s="360" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D163" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E163" s="358"/>
       <c r="F163" s="358"/>
@@ -26225,10 +26227,10 @@
         <v>2476</v>
       </c>
       <c r="C164" s="360" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D164" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E164" s="358"/>
       <c r="F164" s="358"/>
@@ -26242,10 +26244,10 @@
         <v>2490</v>
       </c>
       <c r="C165" s="360" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D165" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E165" s="358"/>
       <c r="F165" s="358"/>
@@ -26259,10 +26261,10 @@
         <v>2495</v>
       </c>
       <c r="C166" s="360" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D166" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E166" s="358"/>
       <c r="F166" s="358"/>
@@ -26276,10 +26278,10 @@
         <v>2496</v>
       </c>
       <c r="C167" s="360" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D167" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E167" s="358"/>
       <c r="F167" s="358"/>
@@ -26293,10 +26295,10 @@
         <v>2497</v>
       </c>
       <c r="C168" s="360" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D168" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E168" s="358"/>
       <c r="F168" s="358"/>
@@ -26310,10 +26312,10 @@
         <v>2498</v>
       </c>
       <c r="C169" s="360" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D169" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E169" s="358"/>
       <c r="F169" s="358"/>
@@ -26327,10 +26329,10 @@
         <v>2499</v>
       </c>
       <c r="C170" s="360" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D170" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E170" s="358"/>
       <c r="F170" s="358"/>
@@ -26344,10 +26346,10 @@
         <v>2500</v>
       </c>
       <c r="C171" s="359" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D171" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E171" s="358"/>
       <c r="F171" s="358"/>
@@ -26372,10 +26374,10 @@
         <v>2600</v>
       </c>
       <c r="C173" s="359" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D173" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E173" s="358"/>
       <c r="F173" s="358"/>
@@ -26389,10 +26391,10 @@
         <v>2620</v>
       </c>
       <c r="C174" s="360" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D174" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E174" s="358"/>
       <c r="F174" s="358"/>
@@ -26406,10 +26408,10 @@
         <v>2630</v>
       </c>
       <c r="C175" s="360" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D175" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E175" s="358"/>
       <c r="F175" s="358"/>
@@ -26423,10 +26425,10 @@
         <v>2650</v>
       </c>
       <c r="C176" s="360" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D176" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E176" s="358"/>
       <c r="F176" s="358"/>
@@ -26440,10 +26442,10 @@
         <v>2700</v>
       </c>
       <c r="C177" s="359" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D177" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E177" s="358"/>
       <c r="F177" s="358"/>
@@ -26490,10 +26492,10 @@
         <v>3300</v>
       </c>
       <c r="C181" s="359" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D181" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E181" s="358"/>
       <c r="F181" s="358"/>
@@ -26507,10 +26509,10 @@
         <v>3305</v>
       </c>
       <c r="C182" s="360" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D182" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E182" s="358"/>
       <c r="F182" s="358"/>
@@ -26524,10 +26526,10 @@
         <v>3310</v>
       </c>
       <c r="C183" s="360" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D183" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E183" s="358"/>
       <c r="F183" s="358"/>
@@ -26541,10 +26543,10 @@
         <v>3315</v>
       </c>
       <c r="C184" s="360" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D184" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E184" s="358"/>
       <c r="F184" s="358"/>
@@ -26558,10 +26560,10 @@
         <v>3320</v>
       </c>
       <c r="C185" s="360" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D185" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E185" s="358"/>
       <c r="F185" s="358"/>
@@ -26575,10 +26577,10 @@
         <v>3325</v>
       </c>
       <c r="C186" s="360" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D186" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E186" s="358"/>
       <c r="F186" s="358"/>
@@ -26592,10 +26594,10 @@
         <v>3327</v>
       </c>
       <c r="C187" s="360" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D187" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E187" s="358"/>
       <c r="F187" s="358"/>
@@ -26609,10 +26611,10 @@
         <v>3330</v>
       </c>
       <c r="C188" s="360" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D188" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E188" s="358"/>
       <c r="F188" s="358"/>
@@ -26626,10 +26628,10 @@
         <v>3335</v>
       </c>
       <c r="C189" s="360" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D189" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E189" s="358"/>
       <c r="F189" s="358"/>
@@ -26643,10 +26645,10 @@
         <v>3340</v>
       </c>
       <c r="C190" s="360" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D190" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E190" s="358"/>
       <c r="F190" s="358"/>
@@ -26660,10 +26662,10 @@
         <v>3342</v>
       </c>
       <c r="C191" s="360" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D191" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E191" s="358"/>
       <c r="F191" s="358"/>
@@ -26677,10 +26679,10 @@
         <v>3343</v>
       </c>
       <c r="C192" s="360" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D192" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E192" s="358"/>
       <c r="F192" s="358"/>
@@ -26694,10 +26696,10 @@
         <v>3345</v>
       </c>
       <c r="C193" s="360" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D193" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E193" s="358"/>
       <c r="F193" s="358"/>
@@ -26711,10 +26713,10 @@
         <v>3346</v>
       </c>
       <c r="C194" s="360" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D194" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E194" s="358"/>
       <c r="F194" s="358"/>
@@ -26728,10 +26730,10 @@
         <v>3347</v>
       </c>
       <c r="C195" s="360" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D195" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E195" s="358"/>
       <c r="F195" s="358"/>
@@ -26745,10 +26747,10 @@
         <v>3348</v>
       </c>
       <c r="C196" s="360" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D196" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E196" s="358"/>
       <c r="F196" s="358"/>
@@ -26762,10 +26764,10 @@
         <v>3400</v>
       </c>
       <c r="C197" s="359" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D197" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E197" s="358"/>
       <c r="F197" s="358"/>
@@ -26790,10 +26792,10 @@
         <v>3500</v>
       </c>
       <c r="C199" s="359" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D199" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E199" s="358"/>
       <c r="F199" s="358"/>
@@ -26807,10 +26809,10 @@
         <v>3560</v>
       </c>
       <c r="C200" s="360" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D200" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E200" s="358"/>
       <c r="F200" s="358"/>
@@ -26824,10 +26826,10 @@
         <v>3565</v>
       </c>
       <c r="C201" s="360" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D201" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E201" s="358"/>
       <c r="F201" s="358"/>
@@ -26841,10 +26843,10 @@
         <v>3600</v>
       </c>
       <c r="C202" s="360" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D202" s="365" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E202" s="358"/>
       <c r="F202" s="358"/>
@@ -26858,10 +26860,10 @@
         <v>3690</v>
       </c>
       <c r="C203" s="359" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D203" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E203" s="358"/>
       <c r="F203" s="358"/>
@@ -26908,10 +26910,10 @@
         <v>4000</v>
       </c>
       <c r="C207" s="359" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D207" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E207" s="358"/>
       <c r="F207" s="358"/>
@@ -26925,10 +26927,10 @@
         <v>4030</v>
       </c>
       <c r="C208" s="360" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D208" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E208" s="358"/>
       <c r="F208" s="358"/>
@@ -26942,10 +26944,10 @@
         <v>4035</v>
       </c>
       <c r="C209" s="360" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D209" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E209" s="358"/>
       <c r="F209" s="358"/>
@@ -26959,10 +26961,10 @@
         <v>4040</v>
       </c>
       <c r="C210" s="360" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D210" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E210" s="358"/>
       <c r="F210" s="358"/>
@@ -26976,10 +26978,10 @@
         <v>4045</v>
       </c>
       <c r="C211" s="360" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D211" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E211" s="358"/>
       <c r="F211" s="358"/>
@@ -26993,10 +26995,10 @@
         <v>4050</v>
       </c>
       <c r="C212" s="360" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D212" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E212" s="358"/>
       <c r="F212" s="358"/>
@@ -27010,10 +27012,10 @@
         <v>4110</v>
       </c>
       <c r="C213" s="360" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D213" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E213" s="358"/>
       <c r="F213" s="358"/>
@@ -27027,10 +27029,10 @@
         <v>4115</v>
       </c>
       <c r="C214" s="360" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D214" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E214" s="358"/>
       <c r="F214" s="358"/>
@@ -27044,10 +27046,10 @@
         <v>4116</v>
       </c>
       <c r="C215" s="360" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D215" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E215" s="358"/>
       <c r="F215" s="358"/>
@@ -27061,10 +27063,10 @@
         <v>4120</v>
       </c>
       <c r="C216" s="360" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D216" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E216" s="358"/>
       <c r="F216" s="358"/>
@@ -27078,10 +27080,10 @@
         <v>4130</v>
       </c>
       <c r="C217" s="360" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D217" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E217" s="358"/>
       <c r="F217" s="358"/>
@@ -27095,10 +27097,10 @@
         <v>4140</v>
       </c>
       <c r="C218" s="360" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D218" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E218" s="358"/>
       <c r="F218" s="358"/>
@@ -27112,10 +27114,10 @@
         <v>4141</v>
       </c>
       <c r="C219" s="360" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D219" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E219" s="358"/>
       <c r="F219" s="358"/>
@@ -27129,10 +27131,10 @@
         <v>4142</v>
       </c>
       <c r="C220" s="360" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D220" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E220" s="358"/>
       <c r="F220" s="358"/>
@@ -27146,10 +27148,10 @@
         <v>4150</v>
       </c>
       <c r="C221" s="360" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D221" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E221" s="358"/>
       <c r="F221" s="358"/>
@@ -27163,10 +27165,10 @@
         <v>4210</v>
       </c>
       <c r="C222" s="360" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D222" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E222" s="358"/>
       <c r="F222" s="358"/>
@@ -27180,10 +27182,10 @@
         <v>4220</v>
       </c>
       <c r="C223" s="360" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D223" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E223" s="358"/>
       <c r="F223" s="358"/>
@@ -27200,7 +27202,7 @@
         <v>30</v>
       </c>
       <c r="D224" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E224" s="358"/>
       <c r="F224" s="358"/>
@@ -27214,10 +27216,10 @@
         <v>4224</v>
       </c>
       <c r="C225" s="360" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D225" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E225" s="358"/>
       <c r="F225" s="358"/>
@@ -27231,10 +27233,10 @@
         <v>4225</v>
       </c>
       <c r="C226" s="360" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D226" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E226" s="358"/>
       <c r="F226" s="358"/>
@@ -27248,10 +27250,10 @@
         <v>4228</v>
       </c>
       <c r="C227" s="360" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D227" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E227" s="358"/>
       <c r="F227" s="358"/>
@@ -27265,10 +27267,10 @@
         <v>4229</v>
       </c>
       <c r="C228" s="360" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D228" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E228" s="358"/>
       <c r="F228" s="358"/>
@@ -27282,10 +27284,10 @@
         <v>4230</v>
       </c>
       <c r="C229" s="360" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D229" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E229" s="358"/>
       <c r="F229" s="358"/>
@@ -27299,10 +27301,10 @@
         <v>4231</v>
       </c>
       <c r="C230" s="360" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D230" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E230" s="358"/>
       <c r="F230" s="358"/>
@@ -27316,10 +27318,10 @@
         <v>4304</v>
       </c>
       <c r="C231" s="360" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D231" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E231" s="358"/>
       <c r="F231" s="358"/>
@@ -27333,10 +27335,10 @@
         <v>4305</v>
       </c>
       <c r="C232" s="360" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D232" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E232" s="358"/>
       <c r="F232" s="358"/>
@@ -27350,10 +27352,10 @@
         <v>4306</v>
       </c>
       <c r="C233" s="360" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D233" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E233" s="358"/>
       <c r="F233" s="358"/>
@@ -27367,10 +27369,10 @@
         <v>4307</v>
       </c>
       <c r="C234" s="360" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D234" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E234" s="358"/>
       <c r="F234" s="358"/>
@@ -27384,10 +27386,10 @@
         <v>4308</v>
       </c>
       <c r="C235" s="360" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D235" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E235" s="358"/>
       <c r="F235" s="358"/>
@@ -27401,10 +27403,10 @@
         <v>4309</v>
       </c>
       <c r="C236" s="360" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D236" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E236" s="358"/>
       <c r="F236" s="358"/>
@@ -27418,10 +27420,10 @@
         <v>4310</v>
       </c>
       <c r="C237" s="360" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D237" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E237" s="358"/>
       <c r="F237" s="358"/>
@@ -27435,10 +27437,10 @@
         <v>4311</v>
       </c>
       <c r="C238" s="360" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D238" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E238" s="358"/>
       <c r="F238" s="358"/>
@@ -27452,10 +27454,10 @@
         <v>4312</v>
       </c>
       <c r="C239" s="360" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D239" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E239" s="358"/>
       <c r="F239" s="358"/>
@@ -27469,10 +27471,10 @@
         <v>4313</v>
       </c>
       <c r="C240" s="360" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D240" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E240" s="358"/>
       <c r="F240" s="358"/>
@@ -27486,10 +27488,10 @@
         <v>4314</v>
       </c>
       <c r="C241" s="360" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D241" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E241" s="358"/>
       <c r="F241" s="358"/>
@@ -27503,10 +27505,10 @@
         <v>4315</v>
       </c>
       <c r="C242" s="360" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D242" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E242" s="358"/>
       <c r="F242" s="358"/>
@@ -27520,10 +27522,10 @@
         <v>4316</v>
       </c>
       <c r="C243" s="360" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D243" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E243" s="358"/>
       <c r="F243" s="358"/>
@@ -27537,10 +27539,10 @@
         <v>4317</v>
       </c>
       <c r="C244" s="360" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D244" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E244" s="358"/>
       <c r="F244" s="358"/>
@@ -27554,10 +27556,10 @@
         <v>4318</v>
       </c>
       <c r="C245" s="360" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D245" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E245" s="358"/>
       <c r="F245" s="358"/>
@@ -27571,10 +27573,10 @@
         <v>4319</v>
       </c>
       <c r="C246" s="360" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D246" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E246" s="358"/>
       <c r="F246" s="358"/>
@@ -27588,10 +27590,10 @@
         <v>4320</v>
       </c>
       <c r="C247" s="360" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D247" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E247" s="358"/>
       <c r="F247" s="358"/>
@@ -27605,10 +27607,10 @@
         <v>4321</v>
       </c>
       <c r="C248" s="360" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D248" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E248" s="358"/>
       <c r="F248" s="358"/>
@@ -27622,10 +27624,10 @@
         <v>4322</v>
       </c>
       <c r="C249" s="360" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D249" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E249" s="358"/>
       <c r="F249" s="358"/>
@@ -27639,10 +27641,10 @@
         <v>4323</v>
       </c>
       <c r="C250" s="360" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D250" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E250" s="358"/>
       <c r="F250" s="358"/>
@@ -27656,10 +27658,10 @@
         <v>4324</v>
       </c>
       <c r="C251" s="360" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D251" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E251" s="358"/>
       <c r="F251" s="358"/>
@@ -27673,10 +27675,10 @@
         <v>4325</v>
       </c>
       <c r="C252" s="360" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D252" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E252" s="358"/>
       <c r="F252" s="358"/>
@@ -27690,10 +27692,10 @@
         <v>4326</v>
       </c>
       <c r="C253" s="360" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D253" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E253" s="358"/>
       <c r="F253" s="358"/>
@@ -27707,10 +27709,10 @@
         <v>4327</v>
       </c>
       <c r="C254" s="360" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D254" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E254" s="358"/>
       <c r="F254" s="358"/>
@@ -27724,10 +27726,10 @@
         <v>4328</v>
       </c>
       <c r="C255" s="360" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D255" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E255" s="358"/>
       <c r="F255" s="358"/>
@@ -27741,10 +27743,10 @@
         <v>4329</v>
       </c>
       <c r="C256" s="360" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D256" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E256" s="358"/>
       <c r="F256" s="358"/>
@@ -27758,10 +27760,10 @@
         <v>4330</v>
       </c>
       <c r="C257" s="360" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D257" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E257" s="358"/>
       <c r="F257" s="358"/>
@@ -27775,10 +27777,10 @@
         <v>4331</v>
       </c>
       <c r="C258" s="360" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D258" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E258" s="358"/>
       <c r="F258" s="358"/>
@@ -27792,10 +27794,10 @@
         <v>4332</v>
       </c>
       <c r="C259" s="360" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D259" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E259" s="358"/>
       <c r="F259" s="358"/>
@@ -27809,10 +27811,10 @@
         <v>4333</v>
       </c>
       <c r="C260" s="360" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D260" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E260" s="358"/>
       <c r="F260" s="358"/>
@@ -27826,10 +27828,10 @@
         <v>4334</v>
       </c>
       <c r="C261" s="360" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D261" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E261" s="358"/>
       <c r="F261" s="358"/>
@@ -27843,10 +27845,10 @@
         <v>4335</v>
       </c>
       <c r="C262" s="360" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D262" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E262" s="358"/>
       <c r="F262" s="358"/>
@@ -27860,10 +27862,10 @@
         <v>4336</v>
       </c>
       <c r="C263" s="360" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D263" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E263" s="358"/>
       <c r="F263" s="358"/>
@@ -27877,10 +27879,10 @@
         <v>4337</v>
       </c>
       <c r="C264" s="360" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D264" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E264" s="358"/>
       <c r="F264" s="358"/>
@@ -27894,10 +27896,10 @@
         <v>4338</v>
       </c>
       <c r="C265" s="360" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D265" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E265" s="358"/>
       <c r="F265" s="358"/>
@@ -27911,10 +27913,10 @@
         <v>4339</v>
       </c>
       <c r="C266" s="360" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D266" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E266" s="358"/>
       <c r="F266" s="358"/>
@@ -27928,10 +27930,10 @@
         <v>4340</v>
       </c>
       <c r="C267" s="360" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D267" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E267" s="358"/>
       <c r="F267" s="358"/>
@@ -27945,10 +27947,10 @@
         <v>4341</v>
       </c>
       <c r="C268" s="360" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D268" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E268" s="358"/>
       <c r="F268" s="358"/>
@@ -27962,10 +27964,10 @@
         <v>4342</v>
       </c>
       <c r="C269" s="360" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D269" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E269" s="358"/>
       <c r="F269" s="358"/>
@@ -27979,10 +27981,10 @@
         <v>4343</v>
       </c>
       <c r="C270" s="360" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D270" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E270" s="358"/>
       <c r="F270" s="358"/>
@@ -27996,10 +27998,10 @@
         <v>4344</v>
       </c>
       <c r="C271" s="360" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D271" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E271" s="358"/>
       <c r="F271" s="358"/>
@@ -28013,10 +28015,10 @@
         <v>4345</v>
       </c>
       <c r="C272" s="360" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D272" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E272" s="358"/>
       <c r="F272" s="358"/>
@@ -28030,10 +28032,10 @@
         <v>4346</v>
       </c>
       <c r="C273" s="360" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D273" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E273" s="358"/>
       <c r="F273" s="358"/>
@@ -28047,10 +28049,10 @@
         <v>4347</v>
       </c>
       <c r="C274" s="360" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D274" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E274" s="358"/>
       <c r="F274" s="358"/>
@@ -28064,10 +28066,10 @@
         <v>4348</v>
       </c>
       <c r="C275" s="360" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D275" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E275" s="358"/>
       <c r="F275" s="358"/>
@@ -28081,10 +28083,10 @@
         <v>4349</v>
       </c>
       <c r="C276" s="360" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D276" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E276" s="358"/>
       <c r="F276" s="358"/>
@@ -28098,10 +28100,10 @@
         <v>4350</v>
       </c>
       <c r="C277" s="360" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D277" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E277" s="358"/>
       <c r="F277" s="358"/>
@@ -28115,10 +28117,10 @@
         <v>4351</v>
       </c>
       <c r="C278" s="360" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D278" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E278" s="358"/>
       <c r="F278" s="358"/>
@@ -28132,10 +28134,10 @@
         <v>4360</v>
       </c>
       <c r="C279" s="360" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D279" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E279" s="358"/>
       <c r="F279" s="358"/>
@@ -28149,10 +28151,10 @@
         <v>4361</v>
       </c>
       <c r="C280" s="360" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D280" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E280" s="358"/>
       <c r="F280" s="358"/>
@@ -28166,10 +28168,10 @@
         <v>4362</v>
       </c>
       <c r="C281" s="360" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D281" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E281" s="358"/>
       <c r="F281" s="358"/>
@@ -28183,10 +28185,10 @@
         <v>4394</v>
       </c>
       <c r="C282" s="360" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D282" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E282" s="358"/>
       <c r="F282" s="358"/>
@@ -28200,10 +28202,10 @@
         <v>4395</v>
       </c>
       <c r="C283" s="360" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D283" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E283" s="358"/>
       <c r="F283" s="358"/>
@@ -28217,10 +28219,10 @@
         <v>4396</v>
       </c>
       <c r="C284" s="360" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D284" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E284" s="358"/>
       <c r="F284" s="358"/>
@@ -28234,10 +28236,10 @@
         <v>4426</v>
       </c>
       <c r="C285" s="360" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D285" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E285" s="358"/>
       <c r="F285" s="358"/>
@@ -28251,10 +28253,10 @@
         <v>4458</v>
       </c>
       <c r="C286" s="360" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D286" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E286" s="358"/>
       <c r="F286" s="358"/>
@@ -28268,10 +28270,10 @@
         <v>4490</v>
       </c>
       <c r="C287" s="360" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D287" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E287" s="358"/>
       <c r="F287" s="358"/>
@@ -28285,10 +28287,10 @@
         <v>4491</v>
       </c>
       <c r="C288" s="360" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D288" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E288" s="358"/>
       <c r="F288" s="358"/>
@@ -28302,10 +28304,10 @@
         <v>4492</v>
       </c>
       <c r="C289" s="360" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D289" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E289" s="358"/>
       <c r="F289" s="358"/>
@@ -28319,10 +28321,10 @@
         <v>4493</v>
       </c>
       <c r="C290" s="360" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D290" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E290" s="358"/>
       <c r="F290" s="358"/>
@@ -28336,10 +28338,10 @@
         <v>4810</v>
       </c>
       <c r="C291" s="360" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D291" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E291" s="358"/>
       <c r="F291" s="358"/>
@@ -28353,10 +28355,10 @@
         <v>4820</v>
       </c>
       <c r="C292" s="360" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D292" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E292" s="358"/>
       <c r="F292" s="358"/>
@@ -28370,10 +28372,10 @@
         <v>4850</v>
       </c>
       <c r="C293" s="360" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D293" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E293" s="358"/>
       <c r="F293" s="358"/>
@@ -28387,10 +28389,10 @@
         <v>4860</v>
       </c>
       <c r="C294" s="360" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D294" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E294" s="358"/>
       <c r="F294" s="358"/>
@@ -28404,10 +28406,10 @@
         <v>4861</v>
       </c>
       <c r="C295" s="360" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D295" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E295" s="358"/>
       <c r="F295" s="358"/>
@@ -28421,10 +28423,10 @@
         <v>4862</v>
       </c>
       <c r="C296" s="360" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D296" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E296" s="358"/>
       <c r="F296" s="358"/>
@@ -28438,10 +28440,10 @@
         <v>4869</v>
       </c>
       <c r="C297" s="360" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D297" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E297" s="358"/>
       <c r="F297" s="358"/>
@@ -28455,10 +28457,10 @@
         <v>4900</v>
       </c>
       <c r="C298" s="359" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D298" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E298" s="358"/>
       <c r="F298" s="358"/>
@@ -28505,10 +28507,10 @@
         <v>5400</v>
       </c>
       <c r="C302" s="359" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D302" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E302" s="358"/>
       <c r="F302" s="358"/>
@@ -28522,10 +28524,10 @@
         <v>5410</v>
       </c>
       <c r="C303" s="360" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D303" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E303" s="358"/>
       <c r="F303" s="358"/>
@@ -28539,10 +28541,10 @@
         <v>5420</v>
       </c>
       <c r="C304" s="360" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D304" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E304" s="358"/>
       <c r="F304" s="358"/>
@@ -28556,10 +28558,10 @@
         <v>5430</v>
       </c>
       <c r="C305" s="360" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D305" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E305" s="358"/>
       <c r="F305" s="358"/>
@@ -28573,10 +28575,10 @@
         <v>5440</v>
       </c>
       <c r="C306" s="360" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D306" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E306" s="358"/>
       <c r="F306" s="358"/>
@@ -28590,10 +28592,10 @@
         <v>5450</v>
       </c>
       <c r="C307" s="360" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D307" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E307" s="358"/>
       <c r="F307" s="358"/>
@@ -28607,10 +28609,10 @@
         <v>5451</v>
       </c>
       <c r="C308" s="360" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D308" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E308" s="358"/>
       <c r="F308" s="358"/>
@@ -28624,10 +28626,10 @@
         <v>5452</v>
       </c>
       <c r="C309" s="360" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D309" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E309" s="358"/>
       <c r="F309" s="358"/>
@@ -28641,10 +28643,10 @@
         <v>5470</v>
       </c>
       <c r="C310" s="360" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D310" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E310" s="358"/>
       <c r="F310" s="358"/>
@@ -28658,10 +28660,10 @@
         <v>5490</v>
       </c>
       <c r="C311" s="359" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D311" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E311" s="358"/>
       <c r="F311" s="358"/>
@@ -28686,20 +28688,20 @@
         <v>5600</v>
       </c>
       <c r="C313" s="359" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D313" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E313" s="366" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F313" s="366"/>
       <c r="G313" s="366" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H313" s="366" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I313" s="7"/>
     </row>
@@ -28709,17 +28711,17 @@
         <v>5610</v>
       </c>
       <c r="C314" s="360" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D314" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E314" s="358" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F314" s="358"/>
       <c r="G314" s="358" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H314" s="358"/>
       <c r="I314" s="7"/>
@@ -28730,10 +28732,10 @@
         <v>5612</v>
       </c>
       <c r="C315" s="360" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D315" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E315" s="358"/>
       <c r="F315" s="358"/>
@@ -28749,13 +28751,13 @@
         <v>5615</v>
       </c>
       <c r="C316" s="360" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D316" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E316" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F316" s="358"/>
       <c r="G316" s="358"/>
@@ -28768,10 +28770,10 @@
         <v>5618</v>
       </c>
       <c r="C317" s="360" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D317" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E317" s="358"/>
       <c r="F317" s="358"/>
@@ -28785,10 +28787,10 @@
         <v>5620</v>
       </c>
       <c r="C318" s="360" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D318" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E318" s="358"/>
       <c r="F318" s="358"/>
@@ -28802,10 +28804,10 @@
         <v>5622</v>
       </c>
       <c r="C319" s="360" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D319" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E319" s="358"/>
       <c r="F319" s="358"/>
@@ -28819,10 +28821,10 @@
         <v>5624</v>
       </c>
       <c r="C320" s="360" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D320" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E320" s="358"/>
       <c r="F320" s="358"/>
@@ -28839,7 +28841,7 @@
         <v>268</v>
       </c>
       <c r="D321" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E321" s="358"/>
       <c r="F321" s="358"/>
@@ -28856,7 +28858,7 @@
         <v>269</v>
       </c>
       <c r="D322" s="365" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E322" s="358"/>
       <c r="F322" s="358"/>
@@ -28870,10 +28872,10 @@
         <v>5629</v>
       </c>
       <c r="C323" s="360" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D323" s="365" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E323" s="358"/>
       <c r="F323" s="358"/>
@@ -28887,10 +28889,10 @@
         <v>5630</v>
       </c>
       <c r="C324" s="360" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D324" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E324" s="358"/>
       <c r="F324" s="358"/>
@@ -28904,10 +28906,10 @@
         <v>5631</v>
       </c>
       <c r="C325" s="360" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D325" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E325" s="358"/>
       <c r="F325" s="358"/>
@@ -28921,10 +28923,10 @@
         <v>5632</v>
       </c>
       <c r="C326" s="360" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D326" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E326" s="358"/>
       <c r="F326" s="358"/>
@@ -28938,10 +28940,10 @@
         <v>5633</v>
       </c>
       <c r="C327" s="360" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D327" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E327" s="358"/>
       <c r="F327" s="358"/>
@@ -28955,10 +28957,10 @@
         <v>5634</v>
       </c>
       <c r="C328" s="360" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D328" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E328" s="358"/>
       <c r="F328" s="358"/>
@@ -28972,13 +28974,13 @@
         <v>5635</v>
       </c>
       <c r="C329" s="360" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D329" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E329" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F329" s="358"/>
       <c r="G329" s="358"/>
@@ -28994,14 +28996,14 @@
         <v>199</v>
       </c>
       <c r="D330" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E330" s="358" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F330" s="358"/>
       <c r="G330" s="358" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H330" s="358"/>
       <c r="I330" s="7"/>
@@ -29015,10 +29017,10 @@
         <v>202</v>
       </c>
       <c r="D331" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E331" s="358" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F331" s="358"/>
       <c r="G331" s="358"/>
@@ -29031,10 +29033,10 @@
         <v>5639</v>
       </c>
       <c r="C332" s="360" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D332" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E332" s="358"/>
       <c r="F332" s="358"/>
@@ -29051,10 +29053,10 @@
         <v>205</v>
       </c>
       <c r="D333" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E333" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F333" s="358"/>
       <c r="G333" s="358"/>
@@ -29070,7 +29072,7 @@
         <v>265</v>
       </c>
       <c r="D334" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E334" s="358"/>
       <c r="F334" s="358"/>
@@ -29084,10 +29086,10 @@
         <v>5644</v>
       </c>
       <c r="C335" s="360" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D335" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E335" s="358"/>
       <c r="F335" s="358"/>
@@ -29104,10 +29106,10 @@
         <v>207</v>
       </c>
       <c r="D336" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E336" s="358" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F336" s="358"/>
       <c r="G336" s="358"/>
@@ -29120,13 +29122,13 @@
         <v>5646</v>
       </c>
       <c r="C337" s="360" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D337" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E337" s="358" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F337" s="358"/>
       <c r="G337" s="358"/>
@@ -29139,10 +29141,10 @@
         <v>5647</v>
       </c>
       <c r="C338" s="360" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D338" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E338" s="358"/>
       <c r="F338" s="358"/>
@@ -29156,17 +29158,17 @@
         <v>5648</v>
       </c>
       <c r="C339" s="360" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D339" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E339" s="358" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F339" s="358"/>
       <c r="G339" s="358" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H339" s="358"/>
       <c r="I339" s="7"/>
@@ -29177,10 +29179,10 @@
         <v>5650</v>
       </c>
       <c r="C340" s="360" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D340" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E340" s="358"/>
       <c r="F340" s="358"/>
@@ -29194,13 +29196,13 @@
         <v>5651</v>
       </c>
       <c r="C341" s="360" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D341" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E341" s="358" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F341" s="358"/>
       <c r="G341" s="358"/>
@@ -29213,13 +29215,13 @@
         <v>5652</v>
       </c>
       <c r="C342" s="360" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D342" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E342" s="358" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F342" s="358"/>
       <c r="G342" s="358"/>
@@ -29232,10 +29234,10 @@
         <v>5653</v>
       </c>
       <c r="C343" s="360" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D343" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E343" s="358"/>
       <c r="F343" s="358"/>
@@ -29249,13 +29251,13 @@
         <v>5654</v>
       </c>
       <c r="C344" s="360" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D344" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E344" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F344" s="358"/>
       <c r="G344" s="358"/>
@@ -29268,10 +29270,10 @@
         <v>5655</v>
       </c>
       <c r="C345" s="360" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D345" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E345" s="358"/>
       <c r="F345" s="358"/>
@@ -29285,13 +29287,13 @@
         <v>5656</v>
       </c>
       <c r="C346" s="360" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D346" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E346" s="358" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F346" s="358"/>
       <c r="G346" s="358"/>
@@ -29304,13 +29306,13 @@
         <v>5657</v>
       </c>
       <c r="C347" s="360" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D347" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E347" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F347" s="358"/>
       <c r="G347" s="358"/>
@@ -29323,13 +29325,13 @@
         <v>5658</v>
       </c>
       <c r="C348" s="360" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D348" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E348" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F348" s="358"/>
       <c r="G348" s="358"/>
@@ -29342,13 +29344,13 @@
         <v>5659</v>
       </c>
       <c r="C349" s="360" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D349" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E349" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F349" s="358"/>
       <c r="G349" s="358"/>
@@ -29361,13 +29363,13 @@
         <v>5660</v>
       </c>
       <c r="C350" s="360" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D350" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E350" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F350" s="358"/>
       <c r="G350" s="358"/>
@@ -29380,13 +29382,13 @@
         <v>5662</v>
       </c>
       <c r="C351" s="360" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D351" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E351" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F351" s="358"/>
       <c r="G351" s="358"/>
@@ -29399,13 +29401,13 @@
         <v>5663</v>
       </c>
       <c r="C352" s="360" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D352" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E352" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F352" s="358"/>
       <c r="G352" s="358"/>
@@ -29418,13 +29420,13 @@
         <v>5664</v>
       </c>
       <c r="C353" s="360" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D353" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E353" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F353" s="358"/>
       <c r="G353" s="358"/>
@@ -29437,13 +29439,13 @@
         <v>5667</v>
       </c>
       <c r="C354" s="360" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D354" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E354" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F354" s="358"/>
       <c r="G354" s="358"/>
@@ -29456,13 +29458,13 @@
         <v>5670</v>
       </c>
       <c r="C355" s="360" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D355" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E355" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F355" s="358"/>
       <c r="G355" s="358"/>
@@ -29475,13 +29477,13 @@
         <v>5671</v>
       </c>
       <c r="C356" s="360" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D356" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E356" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F356" s="358"/>
       <c r="G356" s="358"/>
@@ -29497,10 +29499,10 @@
         <v>225</v>
       </c>
       <c r="D357" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E357" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F357" s="358"/>
       <c r="G357" s="358"/>
@@ -29513,13 +29515,13 @@
         <v>5674</v>
       </c>
       <c r="C358" s="360" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D358" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E358" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F358" s="358"/>
       <c r="G358" s="358"/>
@@ -29532,13 +29534,13 @@
         <v>5675</v>
       </c>
       <c r="C359" s="360" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D359" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E359" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F359" s="358"/>
       <c r="G359" s="358"/>
@@ -29551,13 +29553,13 @@
         <v>5681</v>
       </c>
       <c r="C360" s="360" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D360" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E360" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F360" s="358"/>
       <c r="G360" s="358"/>
@@ -29570,13 +29572,13 @@
         <v>5682</v>
       </c>
       <c r="C361" s="360" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D361" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E361" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F361" s="358"/>
       <c r="G361" s="358"/>
@@ -29589,13 +29591,13 @@
         <v>5683</v>
       </c>
       <c r="C362" s="360" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D362" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E362" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F362" s="358"/>
       <c r="G362" s="358"/>
@@ -29608,13 +29610,13 @@
         <v>5684</v>
       </c>
       <c r="C363" s="360" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D363" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E363" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F363" s="358"/>
       <c r="G363" s="358"/>
@@ -29627,10 +29629,10 @@
         <v>5685</v>
       </c>
       <c r="C364" s="360" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D364" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E364" s="358"/>
       <c r="F364" s="358"/>
@@ -29644,13 +29646,13 @@
         <v>5686</v>
       </c>
       <c r="C365" s="360" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D365" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E365" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F365" s="358"/>
       <c r="G365" s="358"/>
@@ -29663,13 +29665,13 @@
         <v>5687</v>
       </c>
       <c r="C366" s="360" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D366" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E366" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F366" s="358"/>
       <c r="G366" s="358"/>
@@ -29682,13 +29684,13 @@
         <v>5688</v>
       </c>
       <c r="C367" s="360" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D367" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E367" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F367" s="358"/>
       <c r="G367" s="358"/>
@@ -29701,10 +29703,10 @@
         <v>5689</v>
       </c>
       <c r="C368" s="360" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D368" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E368" s="358"/>
       <c r="F368" s="358"/>
@@ -29718,10 +29720,10 @@
         <v>5690</v>
       </c>
       <c r="C369" s="360" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D369" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E369" s="358"/>
       <c r="F369" s="358"/>
@@ -29735,13 +29737,13 @@
         <v>5691</v>
       </c>
       <c r="C370" s="360" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D370" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E370" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F370" s="358"/>
       <c r="G370" s="358"/>
@@ -29754,10 +29756,10 @@
         <v>5692</v>
       </c>
       <c r="C371" s="360" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D371" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E371" s="358"/>
       <c r="F371" s="358"/>
@@ -29771,13 +29773,13 @@
         <v>5693</v>
       </c>
       <c r="C372" s="360" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D372" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E372" s="367" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F372" s="358"/>
       <c r="G372" s="358"/>
@@ -29790,10 +29792,10 @@
         <v>5694</v>
       </c>
       <c r="C373" s="360" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D373" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E373" s="358"/>
       <c r="F373" s="358"/>
@@ -29810,7 +29812,7 @@
         <v>233</v>
       </c>
       <c r="D374" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E374" s="358"/>
       <c r="F374" s="358"/>
@@ -29824,10 +29826,10 @@
         <v>5696</v>
       </c>
       <c r="C375" s="360" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D375" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E375" s="358"/>
       <c r="F375" s="358"/>
@@ -29841,10 +29843,10 @@
         <v>5697</v>
       </c>
       <c r="C376" s="360" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D376" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E376" s="358"/>
       <c r="F376" s="358"/>
@@ -29858,10 +29860,10 @@
         <v>5698</v>
       </c>
       <c r="C377" s="360" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D377" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E377" s="358"/>
       <c r="F377" s="358"/>
@@ -29875,10 +29877,10 @@
         <v>5699</v>
       </c>
       <c r="C378" s="360" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D378" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E378" s="358"/>
       <c r="F378" s="358"/>
@@ -29892,17 +29894,17 @@
         <v>5700</v>
       </c>
       <c r="C379" s="360" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D379" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E379" s="358" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F379" s="358"/>
       <c r="G379" s="367" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H379" s="358"/>
       <c r="I379" s="7"/>
@@ -29915,7 +29917,7 @@
       <c r="E380" s="358"/>
       <c r="F380" s="358"/>
       <c r="G380" s="367" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H380" s="358"/>
       <c r="I380" s="7"/>
@@ -29928,7 +29930,7 @@
       <c r="E381" s="358"/>
       <c r="F381" s="358"/>
       <c r="G381" s="367" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H381" s="358"/>
       <c r="I381" s="7"/>
@@ -29939,10 +29941,10 @@
         <v>5701</v>
       </c>
       <c r="C382" s="360" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D382" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E382" s="358"/>
       <c r="F382" s="358"/>
@@ -29956,10 +29958,10 @@
         <v>5702</v>
       </c>
       <c r="C383" s="360" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D383" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E383" s="358"/>
       <c r="F383" s="358"/>
@@ -29973,10 +29975,10 @@
         <v>5703</v>
       </c>
       <c r="C384" s="360" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D384" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E384" s="358"/>
       <c r="F384" s="358"/>
@@ -29990,10 +29992,10 @@
         <v>5704</v>
       </c>
       <c r="C385" s="360" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D385" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E385" s="358"/>
       <c r="F385" s="358"/>
@@ -30007,10 +30009,10 @@
         <v>5705</v>
       </c>
       <c r="C386" s="360" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D386" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E386" s="358"/>
       <c r="F386" s="358"/>
@@ -30024,13 +30026,13 @@
         <v>5708</v>
       </c>
       <c r="C387" s="360" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D387" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E387" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F387" s="358"/>
       <c r="G387" s="358"/>
@@ -30043,20 +30045,20 @@
         <v>5709</v>
       </c>
       <c r="C388" s="360" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D388" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E388" s="358" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F388" s="358"/>
       <c r="G388" s="367" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H388" s="358" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="I388" s="7"/>
     </row>
@@ -30066,13 +30068,13 @@
         <v>5710</v>
       </c>
       <c r="C389" s="360" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D389" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E389" s="358" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F389" s="358"/>
       <c r="G389" s="358"/>
@@ -30085,10 +30087,10 @@
         <v>5711</v>
       </c>
       <c r="C390" s="360" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D390" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E390" s="358"/>
       <c r="F390" s="358"/>
@@ -30102,13 +30104,13 @@
         <v>5712</v>
       </c>
       <c r="C391" s="360" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D391" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E391" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F391" s="358"/>
       <c r="G391" s="358"/>
@@ -30121,10 +30123,10 @@
         <v>5713</v>
       </c>
       <c r="C392" s="360" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D392" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E392" s="358"/>
       <c r="F392" s="358"/>
@@ -30138,10 +30140,10 @@
         <v>5715</v>
       </c>
       <c r="C393" s="360" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D393" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E393" s="358"/>
       <c r="F393" s="358"/>
@@ -30155,10 +30157,10 @@
         <v>5720</v>
       </c>
       <c r="C394" s="360" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D394" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E394" s="358"/>
       <c r="F394" s="358"/>
@@ -30172,13 +30174,13 @@
         <v>5740</v>
       </c>
       <c r="C395" s="360" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D395" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E395" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F395" s="358"/>
       <c r="G395" s="358"/>
@@ -30191,10 +30193,10 @@
         <v>5750</v>
       </c>
       <c r="C396" s="360" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D396" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E396" s="358"/>
       <c r="F396" s="358"/>
@@ -30208,10 +30210,10 @@
         <v>5755</v>
       </c>
       <c r="C397" s="360" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D397" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E397" s="358"/>
       <c r="F397" s="358"/>
@@ -30228,10 +30230,10 @@
         <v>237</v>
       </c>
       <c r="D398" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E398" s="358" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F398" s="358"/>
       <c r="G398" s="358"/>
@@ -30244,13 +30246,13 @@
         <v>5765</v>
       </c>
       <c r="C399" s="360" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D399" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E399" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F399" s="358"/>
       <c r="G399" s="358"/>
@@ -30263,13 +30265,13 @@
         <v>5768</v>
       </c>
       <c r="C400" s="360" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D400" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E400" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F400" s="358"/>
       <c r="G400" s="358"/>
@@ -30285,10 +30287,10 @@
         <v>239</v>
       </c>
       <c r="D401" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E401" s="358" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F401" s="358"/>
       <c r="G401" s="358"/>
@@ -30301,10 +30303,10 @@
         <v>5770</v>
       </c>
       <c r="C402" s="360" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D402" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E402" s="358"/>
       <c r="F402" s="358"/>
@@ -30321,10 +30323,10 @@
         <v>242</v>
       </c>
       <c r="D403" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E403" s="358" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F403" s="358"/>
       <c r="G403" s="358"/>
@@ -30337,13 +30339,13 @@
         <v>5772</v>
       </c>
       <c r="C404" s="360" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D404" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E404" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F404" s="358"/>
       <c r="G404" s="358"/>
@@ -30356,13 +30358,13 @@
         <v>5773</v>
       </c>
       <c r="C405" s="360" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D405" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E405" s="358" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F405" s="358"/>
       <c r="G405" s="358"/>
@@ -30375,13 +30377,13 @@
         <v>5774</v>
       </c>
       <c r="C406" s="360" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D406" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E406" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F406" s="358"/>
       <c r="G406" s="358"/>
@@ -30394,10 +30396,10 @@
         <v>5776</v>
       </c>
       <c r="C407" s="360" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D407" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E407" s="358"/>
       <c r="F407" s="358"/>
@@ -30411,13 +30413,13 @@
         <v>5777</v>
       </c>
       <c r="C408" s="360" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D408" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E408" s="358" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F408" s="358"/>
       <c r="G408" s="358"/>
@@ -30433,10 +30435,10 @@
         <v>246</v>
       </c>
       <c r="D409" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E409" s="358" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F409" s="358"/>
       <c r="G409" s="358"/>
@@ -30449,17 +30451,17 @@
         <v>5783</v>
       </c>
       <c r="C410" s="360" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D410" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E410" s="358" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F410" s="358"/>
       <c r="G410" s="367" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H410" s="358"/>
       <c r="I410" s="7"/>
@@ -30472,7 +30474,7 @@
       <c r="E411" s="358"/>
       <c r="F411" s="358"/>
       <c r="G411" s="367" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H411" s="358"/>
       <c r="I411" s="7"/>
@@ -30485,7 +30487,7 @@
       <c r="E412" s="358"/>
       <c r="F412" s="358"/>
       <c r="G412" s="367" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H412" s="358"/>
       <c r="I412" s="7"/>
@@ -30499,14 +30501,14 @@
         <v>250</v>
       </c>
       <c r="D413" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E413" s="368" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F413" s="358"/>
       <c r="G413" s="369" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H413" s="358"/>
       <c r="I413" s="7"/>
@@ -30517,15 +30519,15 @@
         <v>5785</v>
       </c>
       <c r="C414" s="360" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="D414" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E414" s="368"/>
       <c r="F414" s="358"/>
       <c r="G414" s="369" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H414" s="358"/>
       <c r="I414" s="7"/>
@@ -30536,15 +30538,15 @@
         <v>5786</v>
       </c>
       <c r="C415" s="360" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D415" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E415" s="368"/>
       <c r="F415" s="358"/>
       <c r="G415" s="369" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H415" s="358"/>
       <c r="I415" s="7"/>
@@ -30555,15 +30557,15 @@
         <v>5787</v>
       </c>
       <c r="C416" s="360" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D416" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E416" s="368"/>
       <c r="F416" s="358"/>
       <c r="G416" s="369" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H416" s="358"/>
       <c r="I416" s="7"/>
@@ -30574,10 +30576,10 @@
         <v>5788</v>
       </c>
       <c r="C417" s="360" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D417" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E417" s="368"/>
       <c r="F417" s="358"/>
@@ -30591,10 +30593,10 @@
         <v>5789</v>
       </c>
       <c r="C418" s="360" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D418" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E418" s="368"/>
       <c r="F418" s="358"/>
@@ -30608,10 +30610,10 @@
         <v>5790</v>
       </c>
       <c r="C419" s="360" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D419" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E419" s="368"/>
       <c r="F419" s="358"/>
@@ -30625,10 +30627,10 @@
         <v>5791</v>
       </c>
       <c r="C420" s="360" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D420" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E420" s="368"/>
       <c r="F420" s="358"/>
@@ -30642,10 +30644,10 @@
         <v>5792</v>
       </c>
       <c r="C421" s="360" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D421" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E421" s="368"/>
       <c r="F421" s="358"/>
@@ -30659,10 +30661,10 @@
         <v>5793</v>
       </c>
       <c r="C422" s="360" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D422" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E422" s="368"/>
       <c r="F422" s="358"/>
@@ -30676,10 +30678,10 @@
         <v>5794</v>
       </c>
       <c r="C423" s="360" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D423" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E423" s="358"/>
       <c r="F423" s="358"/>
@@ -30693,13 +30695,13 @@
         <v>5795</v>
       </c>
       <c r="C424" s="360" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D424" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E424" s="358" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F424" s="358"/>
       <c r="G424" s="358"/>
@@ -30712,13 +30714,13 @@
         <v>5796</v>
       </c>
       <c r="C425" s="360" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D425" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E425" s="358" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F425" s="358"/>
       <c r="G425" s="358"/>
@@ -30731,10 +30733,10 @@
         <v>5797</v>
       </c>
       <c r="C426" s="360" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D426" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E426" s="358"/>
       <c r="F426" s="358"/>
@@ -30748,17 +30750,17 @@
         <v>5798</v>
       </c>
       <c r="C427" s="360" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D427" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E427" s="358" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F427" s="358"/>
       <c r="G427" s="367" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H427" s="358"/>
       <c r="I427" s="7"/>
@@ -30769,10 +30771,10 @@
         <v>5799</v>
       </c>
       <c r="C428" s="360" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D428" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E428" s="358"/>
       <c r="F428" s="358"/>
@@ -30786,10 +30788,10 @@
         <v>5800</v>
       </c>
       <c r="C429" s="359" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D429" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E429" s="358"/>
       <c r="F429" s="358"/>
@@ -30814,10 +30816,10 @@
         <v>5810</v>
       </c>
       <c r="C431" s="359" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D431" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E431" s="358"/>
       <c r="F431" s="358"/>
@@ -30831,10 +30833,10 @@
         <v>5811</v>
       </c>
       <c r="C432" s="360" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D432" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E432" s="358"/>
       <c r="F432" s="358"/>
@@ -30848,10 +30850,10 @@
         <v>5812</v>
       </c>
       <c r="C433" s="360" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D433" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E433" s="358"/>
       <c r="F433" s="358"/>
@@ -30865,10 +30867,10 @@
         <v>5813</v>
       </c>
       <c r="C434" s="360" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D434" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E434" s="358"/>
       <c r="F434" s="358"/>
@@ -30882,10 +30884,10 @@
         <v>5814</v>
       </c>
       <c r="C435" s="360" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D435" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E435" s="358"/>
       <c r="F435" s="358"/>
@@ -30899,10 +30901,10 @@
         <v>5815</v>
       </c>
       <c r="C436" s="360" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D436" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E436" s="358"/>
       <c r="F436" s="358"/>
@@ -30916,10 +30918,10 @@
         <v>5816</v>
       </c>
       <c r="C437" s="360" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D437" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E437" s="358"/>
       <c r="F437" s="358"/>
@@ -30933,10 +30935,10 @@
         <v>5817</v>
       </c>
       <c r="C438" s="360" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D438" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E438" s="358"/>
       <c r="F438" s="358"/>
@@ -30950,10 +30952,10 @@
         <v>5818</v>
       </c>
       <c r="C439" s="360" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D439" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E439" s="358"/>
       <c r="F439" s="358"/>
@@ -30967,10 +30969,10 @@
         <v>5819</v>
       </c>
       <c r="C440" s="359" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D440" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E440" s="358"/>
       <c r="F440" s="358"/>
@@ -30995,10 +30997,10 @@
         <v>5820</v>
       </c>
       <c r="C442" s="359" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D442" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E442" s="358"/>
       <c r="F442" s="358"/>
@@ -31012,10 +31014,10 @@
         <v>5821</v>
       </c>
       <c r="C443" s="360" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D443" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E443" s="358"/>
       <c r="F443" s="358"/>
@@ -31029,10 +31031,10 @@
         <v>5825</v>
       </c>
       <c r="C444" s="359" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D444" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E444" s="358"/>
       <c r="F444" s="358"/>
@@ -31057,10 +31059,10 @@
         <v>5830</v>
       </c>
       <c r="C446" s="359" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D446" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E446" s="358"/>
       <c r="F446" s="358"/>
@@ -31074,10 +31076,10 @@
         <v>5831</v>
       </c>
       <c r="C447" s="360" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D447" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E447" s="358"/>
       <c r="F447" s="358"/>
@@ -31091,10 +31093,10 @@
         <v>5832</v>
       </c>
       <c r="C448" s="360" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D448" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E448" s="358"/>
       <c r="F448" s="358"/>
@@ -31108,10 +31110,10 @@
         <v>5833</v>
       </c>
       <c r="C449" s="360" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D449" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E449" s="358"/>
       <c r="F449" s="358"/>
@@ -31125,10 +31127,10 @@
         <v>5834</v>
       </c>
       <c r="C450" s="360" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D450" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E450" s="358"/>
       <c r="F450" s="358"/>
@@ -31142,10 +31144,10 @@
         <v>5835</v>
       </c>
       <c r="C451" s="359" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D451" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E451" s="358"/>
       <c r="F451" s="358"/>
@@ -31170,10 +31172,10 @@
         <v>5836</v>
       </c>
       <c r="C453" s="359" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D453" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E453" s="358"/>
       <c r="F453" s="358"/>
@@ -31187,13 +31189,13 @@
         <v>5848</v>
       </c>
       <c r="C454" s="360" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D454" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E454" s="358" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F454" s="358"/>
       <c r="G454" s="358"/>
@@ -31206,13 +31208,13 @@
         <v>5849</v>
       </c>
       <c r="C455" s="360" t="s">
+        <v>947</v>
+      </c>
+      <c r="D455" s="365" t="s">
+        <v>533</v>
+      </c>
+      <c r="E455" s="358" t="s">
         <v>946</v>
-      </c>
-      <c r="D455" s="365" t="s">
-        <v>532</v>
-      </c>
-      <c r="E455" s="358" t="s">
-        <v>945</v>
       </c>
       <c r="F455" s="358"/>
       <c r="G455" s="358"/>
@@ -31225,13 +31227,13 @@
         <v>5850</v>
       </c>
       <c r="C456" s="360" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D456" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E456" s="358" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F456" s="358"/>
       <c r="G456" s="358"/>
@@ -31244,13 +31246,13 @@
         <v>5851</v>
       </c>
       <c r="C457" s="360" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D457" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E457" s="358" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F457" s="358"/>
       <c r="G457" s="358"/>
@@ -31263,13 +31265,13 @@
         <v>5856</v>
       </c>
       <c r="C458" s="360" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D458" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E458" s="358" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F458" s="358"/>
       <c r="G458" s="358"/>
@@ -31282,13 +31284,13 @@
         <v>5857</v>
       </c>
       <c r="C459" s="360" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D459" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E459" s="358" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F459" s="358"/>
       <c r="G459" s="358"/>
@@ -31301,17 +31303,17 @@
         <v>5858</v>
       </c>
       <c r="C460" s="360" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D460" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E460" s="358" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F460" s="358"/>
       <c r="G460" s="367" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H460" s="358"/>
       <c r="I460" s="7"/>
@@ -31324,7 +31326,7 @@
       <c r="E461" s="358"/>
       <c r="F461" s="358"/>
       <c r="G461" s="367" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H461" s="358"/>
       <c r="I461" s="7"/>
@@ -31350,7 +31352,7 @@
       <c r="E463" s="358"/>
       <c r="F463" s="358"/>
       <c r="G463" s="367" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H463" s="358"/>
       <c r="I463" s="7"/>
@@ -31361,13 +31363,13 @@
         <v>5860</v>
       </c>
       <c r="C464" s="360" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D464" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E464" s="358" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F464" s="358"/>
       <c r="G464" s="358"/>
@@ -31380,13 +31382,13 @@
         <v>5882</v>
       </c>
       <c r="C465" s="360" t="s">
+        <v>957</v>
+      </c>
+      <c r="D465" s="365" t="s">
+        <v>533</v>
+      </c>
+      <c r="E465" s="358" t="s">
         <v>956</v>
-      </c>
-      <c r="D465" s="365" t="s">
-        <v>532</v>
-      </c>
-      <c r="E465" s="358" t="s">
-        <v>955</v>
       </c>
       <c r="F465" s="358"/>
       <c r="G465" s="358"/>
@@ -31399,10 +31401,10 @@
         <v>5895</v>
       </c>
       <c r="C466" s="359" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D466" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E466" s="358"/>
       <c r="F466" s="358"/>
@@ -31427,10 +31429,10 @@
         <v>5900</v>
       </c>
       <c r="C468" s="359" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D468" s="364" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E468" s="358"/>
       <c r="F468" s="358"/>
@@ -31444,10 +31446,10 @@
         <v>5910</v>
       </c>
       <c r="C469" s="360" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D469" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E469" s="358"/>
       <c r="F469" s="358"/>
@@ -31461,10 +31463,10 @@
         <v>5911</v>
       </c>
       <c r="C470" s="360" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D470" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E470" s="358"/>
       <c r="F470" s="358"/>
@@ -31478,10 +31480,10 @@
         <v>5920</v>
       </c>
       <c r="C471" s="360" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D471" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E471" s="358"/>
       <c r="F471" s="358"/>
@@ -31495,10 +31497,10 @@
         <v>5996</v>
       </c>
       <c r="C472" s="360" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D472" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E472" s="358"/>
       <c r="F472" s="358"/>
@@ -31512,10 +31514,10 @@
         <v>5998</v>
       </c>
       <c r="C473" s="360" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D473" s="365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E473" s="358"/>
       <c r="F473" s="358"/>
@@ -31529,10 +31531,10 @@
         <v>5999</v>
       </c>
       <c r="C474" s="359" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D474" s="364" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E474" s="358"/>
       <c r="F474" s="358"/>
@@ -31542,7 +31544,7 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="359" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B475" s="359"/>
       <c r="C475" s="359"/>
@@ -31614,7 +31616,7 @@
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="358" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F481" s="358"/>
       <c r="G481" s="358"/>
@@ -32252,7 +32254,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -32263,7 +32265,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="332" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -32531,7 +32533,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -32713,7 +32715,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -32928,10 +32930,10 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="R36" s="7"/>
     </row>

--- a/files/ModifiedPurchaseOrder.xlsx
+++ b/files/ModifiedPurchaseOrder.xlsx
@@ -198,16 +198,16 @@
     <t>ESDC - GG</t>
   </si>
   <si>
-    <t>seyit</t>
-  </si>
-  <si>
-    <t>set@gmail.com</t>
+    <t>sigan adam</t>
+  </si>
+  <si>
+    <t>sigan@gmail.com</t>
   </si>
   <si>
     <t>Notes to Admin</t>
   </si>
   <si>
-    <t>nope</t>
+    <t>Note no</t>
   </si>
   <si>
     <t>Source / Grant</t>
@@ -219,19 +219,16 @@
     <t>HST Total</t>
   </si>
   <si>
-    <t xml:space="preserve">gimble </t>
+    <t xml:space="preserve">Gbimle </t>
+  </si>
+  <si>
+    <t>Hospitality/Food</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
   <si>
     <t>UEC</t>
-  </si>
-  <si>
-    <t>CERI</t>
-  </si>
-  <si>
-    <t>Travel - Staff</t>
-  </si>
-  <si>
-    <t>asdf</t>
   </si>
   <si>
     <t>Total HST</t>
@@ -592,6 +589,9 @@
     <t>Grow With The Flow</t>
   </si>
   <si>
+    <t>CERI</t>
+  </si>
+  <si>
     <t>Science &amp; Innovation</t>
   </si>
   <si>
@@ -727,9 +727,6 @@
     <t>Insurance</t>
   </si>
   <si>
-    <t>Hospitality/Food</t>
-  </si>
-  <si>
     <t>5693</t>
   </si>
   <si>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>5785</t>
+  </si>
+  <si>
+    <t>Travel - Staff</t>
   </si>
   <si>
     <t>Training and Development</t>
@@ -5798,7 +5798,7 @@
         <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
         <v>294</v>
@@ -7901,7 +7901,7 @@
         <v>5693</v>
       </c>
       <c r="B19" s="348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="348"/>
       <c r="D19" s="284"/>
@@ -7917,7 +7917,7 @@
         <v>5694</v>
       </c>
       <c r="B20" s="345" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="345"/>
       <c r="D20" s="284"/>
@@ -7933,7 +7933,7 @@
         <v>5695</v>
       </c>
       <c r="B21" s="345" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="284"/>
@@ -7949,7 +7949,7 @@
         <v>5700</v>
       </c>
       <c r="B22" s="343" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="343"/>
       <c r="D22" s="284"/>
@@ -7965,7 +7965,7 @@
         <v>5760</v>
       </c>
       <c r="B23" s="343" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="343"/>
       <c r="D23" s="284"/>
@@ -7981,7 +7981,7 @@
         <v>5769</v>
       </c>
       <c r="B24" s="345" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="345"/>
       <c r="D24" s="284"/>
@@ -8013,7 +8013,7 @@
         <v>5771</v>
       </c>
       <c r="B26" s="345" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="345"/>
       <c r="D26" s="284"/>
@@ -8029,7 +8029,7 @@
         <v>5773</v>
       </c>
       <c r="B27" s="343" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="343"/>
       <c r="D27" s="284"/>
@@ -8037,7 +8037,7 @@
         <v>5695</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -8045,7 +8045,7 @@
         <v>5780</v>
       </c>
       <c r="B28" s="343" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="343"/>
       <c r="D28" s="284"/>
@@ -8077,7 +8077,7 @@
         <v>5784</v>
       </c>
       <c r="B30" s="345" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="350"/>
       <c r="D30" s="284"/>
@@ -8093,7 +8093,7 @@
         <v>5785</v>
       </c>
       <c r="B31" s="345" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="C31" s="345"/>
       <c r="D31" s="284"/>
@@ -8127,7 +8127,7 @@
         <v>5760</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -8135,7 +8135,7 @@
         <v>5850</v>
       </c>
       <c r="B34" s="343" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="C34" s="343"/>
       <c r="D34" s="284"/>
@@ -8175,7 +8175,7 @@
         <v>5769</v>
       </c>
       <c r="I36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
         <v>5780</v>
       </c>
       <c r="I38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -8223,7 +8223,7 @@
         <v>5784</v>
       </c>
       <c r="I40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -8235,7 +8235,7 @@
         <v>5785</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -8488,55 +8488,55 @@
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" s="285" t="s">
+        <v>226</v>
+      </c>
+      <c r="I73" s="285" t="s">
         <v>227</v>
-      </c>
-      <c r="I73" s="285" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" s="285" t="s">
+        <v>228</v>
+      </c>
+      <c r="I74" s="285" t="s">
         <v>229</v>
-      </c>
-      <c r="I74" s="285" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" s="285" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" s="285" t="s">
         <v>232</v>
-      </c>
-      <c r="I75" s="285" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" s="285" t="s">
+        <v>233</v>
+      </c>
+      <c r="I76" s="285" t="s">
         <v>234</v>
-      </c>
-      <c r="I76" s="285" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="I77" s="285" t="s">
         <v>236</v>
-      </c>
-      <c r="I77" s="285" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78" s="285" t="s">
+        <v>237</v>
+      </c>
+      <c r="I78" s="285" t="s">
         <v>238</v>
-      </c>
-      <c r="I78" s="285" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I79" s="285" t="s">
         <v>203</v>
@@ -8544,50 +8544,50 @@
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H80" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="I80" s="285" t="s">
         <v>241</v>
-      </c>
-      <c r="I80" s="285" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="I81" s="285" t="s">
         <v>243</v>
-      </c>
-      <c r="I81" s="285" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" s="285" t="s">
+        <v>244</v>
+      </c>
+      <c r="I82" s="285" t="s">
         <v>245</v>
-      </c>
-      <c r="I82" s="285" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" s="285" t="s">
+        <v>246</v>
+      </c>
+      <c r="I83" s="285" t="s">
         <v>247</v>
-      </c>
-      <c r="I83" s="285" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" s="285" t="s">
+        <v>248</v>
+      </c>
+      <c r="I84" s="285" t="s">
         <v>249</v>
-      </c>
-      <c r="I84" s="285" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" s="285" t="s">
+        <v>250</v>
+      </c>
+      <c r="I85" s="285" t="s">
         <v>251</v>
-      </c>
-      <c r="I85" s="285" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
@@ -8611,7 +8611,7 @@
         <v>257</v>
       </c>
       <c r="I88" s="285" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
@@ -8681,13 +8681,13 @@
         <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
@@ -8713,13 +8713,13 @@
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" s="336" t="s">
         <v>488</v>
@@ -8739,7 +8739,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N3" t="s">
         <v>490</v>
@@ -8756,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8767,7 +8767,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8778,7 +8778,7 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8789,7 +8789,7 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8800,7 +8800,7 @@
         <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8811,7 +8811,7 @@
         <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8819,7 +8819,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="337" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10244,23 +10244,23 @@
         <v>60</v>
       </c>
       <c r="C12" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>63</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="66">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I12" s="67">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="J12" s="67">
         <f>I12*H12*0.15</f>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" s="60"/>
       <c r="Q15" s="22">
@@ -11110,7 +11110,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="72"/>
       <c r="I22" s="73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="74">
         <f>SUM(J12:J21)</f>
@@ -11180,7 +11180,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="37"/>
       <c r="I23" s="77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
@@ -11578,7 +11578,7 @@
         <v>49</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="22"/>
@@ -12236,7 +12236,7 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J42" s="105">
         <f>J23</f>
@@ -12336,7 +12336,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" s="105">
         <f>J22</f>
@@ -13606,7 +13606,7 @@
     <row r="2" ht="29.25" customHeight="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
@@ -13738,7 +13738,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="22"/>
@@ -13774,16 +13774,16 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="s">
         <v>72</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -13848,10 +13848,10 @@
     <row r="6" ht="30.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="118" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="118"/>
       <c r="E6" s="22"/>
@@ -13865,7 +13865,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P6" s="38"/>
       <c r="Q6" s="22"/>
@@ -13934,7 +13934,7 @@
     <row r="8" ht="17.1" customHeight="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="122">
         <v>44927</v>
@@ -13967,7 +13967,7 @@
         <v>CCF</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -14039,7 +14039,7 @@
         <v>8</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
         <v>52</v>
@@ -14085,7 +14085,7 @@
     <row r="12" ht="84" customHeight="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="132" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="133" t="s">
         <v>3</v>
@@ -14094,55 +14094,55 @@
         <v>57</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="134" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="I12" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="J12" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="K12" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="135" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="135" t="s">
+      <c r="O12" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="135" t="s">
+      <c r="P12" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="135" t="s">
+      <c r="Q12" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="135" t="s">
+      <c r="R12" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="136" t="s">
+      <c r="S12" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="S12" s="137" t="s">
+      <c r="T12" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="T12" s="138" t="s">
+      <c r="U12" s="139" t="s">
         <v>94</v>
-      </c>
-      <c r="U12" s="139" t="s">
-        <v>95</v>
       </c>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
@@ -14420,7 +14420,7 @@
         <v>13</v>
       </c>
       <c r="Z15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB15">
         <f t="array" ref="AB15">IF($C16="","",IF(INDEX(Lists!$E$1:$K$13,PO_V1!Q$2,MATCH($C16,Lists!$E$1:$L$1,0))=0,"",INDEX(Lists!$E$1:$K$13,PO_V1!Q$2,MATCH($C16,Lists!$E$1:$L$1,0))))</f>
@@ -14507,10 +14507,10 @@
         <v>14</v>
       </c>
       <c r="Z16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA16" t="s">
         <v>96</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>97</v>
       </c>
       <c r="AB16">
         <f t="array" ref="AB16">IF($C17="","",IF(INDEX(Lists!$E$1:$K$13,PO_V1!Q$2,MATCH($C17,Lists!$E$1:$L$1,0))=0,"",INDEX(Lists!$E$1:$K$13,PO_V1!Q$2,MATCH($C17,Lists!$E$1:$L$1,0))))</f>
@@ -15075,7 +15075,7 @@
       <c r="R23" s="163"/>
       <c r="S23" s="164"/>
       <c r="T23" s="165" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U23" s="166">
         <f>SUM(P13:P22,R13:R22)+ (SUM(N13:N22)/1.15)+(SUM(J13:J22)/1.15)+(SUM(T13:T22)/1.15)</f>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="331">
         <v>0.59</v>
@@ -15718,7 +15718,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>24.9</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>25.2</v>
@@ -15734,7 +15734,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>61.85</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>17.3</v>
@@ -15859,7 +15859,7 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="296" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="297"/>
       <c r="D2" s="297"/>
@@ -15945,7 +15945,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="6"/>
       <c r="K4" s="301"/>
@@ -16073,7 +16073,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>6</v>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="28" ht="29.25" customHeight="1" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="296" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="297"/>
       <c r="D28" s="297"/>
@@ -17880,15 +17880,15 @@
         <v>5850</v>
       </c>
       <c r="B18" s="289" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="C18" s="289"/>
       <c r="D18" s="289"/>
       <c r="H18" s="285" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="285" t="s">
         <v>227</v>
-      </c>
-      <c r="I18" s="285" t="s">
-        <v>228</v>
       </c>
       <c r="J18" s="285" t="s">
         <v>191</v>
@@ -17904,13 +17904,13 @@
       <c r="C19" s="284"/>
       <c r="D19" s="284"/>
       <c r="H19" s="285" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" s="285" t="s">
         <v>229</v>
       </c>
-      <c r="I19" s="285" t="s">
+      <c r="J19" s="285" t="s">
         <v>230</v>
-      </c>
-      <c r="J19" s="285" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -17918,18 +17918,18 @@
         <v>5694</v>
       </c>
       <c r="B20" s="284" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="284"/>
       <c r="D20" s="284"/>
       <c r="H20" s="285" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20" s="285" t="s">
         <v>232</v>
       </c>
-      <c r="I20" s="285" t="s">
-        <v>233</v>
-      </c>
       <c r="J20" s="285" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -17937,15 +17937,15 @@
         <v>5693</v>
       </c>
       <c r="B21" s="284" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="284"/>
       <c r="D21" s="284"/>
       <c r="H21" s="285" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="285" t="s">
         <v>234</v>
-      </c>
-      <c r="I21" s="285" t="s">
-        <v>235</v>
       </c>
       <c r="J21" s="285" t="s">
         <v>191</v>
@@ -17956,15 +17956,15 @@
         <v>5695</v>
       </c>
       <c r="B22" s="284" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="284"/>
       <c r="D22" s="284"/>
       <c r="H22" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="285" t="s">
         <v>236</v>
-      </c>
-      <c r="I22" s="285" t="s">
-        <v>237</v>
       </c>
       <c r="J22" s="285" t="s">
         <v>191</v>
@@ -17975,15 +17975,15 @@
         <v>5700</v>
       </c>
       <c r="B23" s="284" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="284"/>
       <c r="D23" s="284"/>
       <c r="H23" s="285" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="285" t="s">
         <v>238</v>
-      </c>
-      <c r="I23" s="285" t="s">
-        <v>239</v>
       </c>
       <c r="J23" s="285" t="s">
         <v>194</v>
@@ -17999,7 +17999,7 @@
       <c r="C24" s="284"/>
       <c r="D24" s="284"/>
       <c r="H24" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I24" s="285" t="s">
         <v>203</v>
@@ -18018,10 +18018,10 @@
       <c r="C25" s="284"/>
       <c r="D25" s="284"/>
       <c r="H25" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" s="285" t="s">
         <v>241</v>
-      </c>
-      <c r="I25" s="285" t="s">
-        <v>242</v>
       </c>
       <c r="J25" s="285" t="s">
         <v>194</v>
@@ -18032,15 +18032,15 @@
         <v>5760</v>
       </c>
       <c r="B26" s="284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="284"/>
       <c r="D26" s="284"/>
       <c r="H26" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" s="285" t="s">
         <v>243</v>
-      </c>
-      <c r="I26" s="285" t="s">
-        <v>244</v>
       </c>
       <c r="J26" s="285" t="s">
         <v>194</v>
@@ -18051,15 +18051,15 @@
         <v>5773</v>
       </c>
       <c r="B27" s="284" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="284"/>
       <c r="D27" s="284"/>
       <c r="H27" s="285" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" s="285" t="s">
         <v>245</v>
-      </c>
-      <c r="I27" s="285" t="s">
-        <v>246</v>
       </c>
       <c r="J27" s="285" t="s">
         <v>191</v>
@@ -18070,15 +18070,15 @@
         <v>5769</v>
       </c>
       <c r="B28" s="284" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="284"/>
       <c r="D28" s="284"/>
       <c r="H28" s="285" t="s">
+        <v>246</v>
+      </c>
+      <c r="I28" s="285" t="s">
         <v>247</v>
-      </c>
-      <c r="I28" s="285" t="s">
-        <v>248</v>
       </c>
       <c r="J28" s="285" t="s">
         <v>194</v>
@@ -18089,15 +18089,15 @@
         <v>5771</v>
       </c>
       <c r="B29" s="284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="291"/>
       <c r="D29" s="284"/>
       <c r="H29" s="285" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29" s="285" t="s">
         <v>249</v>
-      </c>
-      <c r="I29" s="285" t="s">
-        <v>250</v>
       </c>
       <c r="J29" s="285" t="s">
         <v>194</v>
@@ -18108,15 +18108,15 @@
         <v>5780</v>
       </c>
       <c r="B30" s="284" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" s="284"/>
       <c r="D30" s="284"/>
       <c r="H30" s="285" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="285" t="s">
         <v>251</v>
-      </c>
-      <c r="I30" s="285" t="s">
-        <v>63</v>
       </c>
       <c r="J30" s="285" t="s">
         <v>191</v>
@@ -18146,7 +18146,7 @@
         <v>5784</v>
       </c>
       <c r="B32" s="284" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="284"/>
       <c r="D32" s="284"/>
@@ -18157,7 +18157,7 @@
         <v>256</v>
       </c>
       <c r="J32" s="285" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -18165,7 +18165,7 @@
         <v>5785</v>
       </c>
       <c r="B33" s="284" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="C33" s="284"/>
       <c r="D33" s="284"/>
@@ -18173,10 +18173,10 @@
         <v>257</v>
       </c>
       <c r="I33" s="285" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="J33" s="285" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -18298,14 +18298,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="267" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="267"/>
       <c r="C1" s="267"/>
       <c r="D1" s="267"/>
       <c r="E1" s="268"/>
       <c r="F1" s="267" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="267"/>
       <c r="H1" s="267"/>
@@ -20120,7 +20120,7 @@
     <row r="2" ht="29.25" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
@@ -20145,7 +20145,7 @@
       <c r="T2" s="115"/>
       <c r="U2" s="115"/>
       <c r="V2" s="116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
@@ -20277,16 +20277,16 @@
         <v>10</v>
       </c>
       <c r="AH4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s">
         <v>72</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>74</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -20348,7 +20348,7 @@
     <row r="6" ht="42" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="187" t="str">
         <f>'Expense Report'!C6</f>
@@ -20392,7 +20392,7 @@
     <row r="7" ht="42" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="182" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="188">
         <f>'Expense Report'!C7</f>
@@ -20435,7 +20435,7 @@
     <row r="8" ht="42" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="190">
         <f>'Expense Report'!C8</f>
@@ -20487,7 +20487,7 @@
         <v>7</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA9" s="33" t="s">
         <v>52</v>
@@ -20557,7 +20557,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="196" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="197" t="s">
         <v>3</v>
@@ -20577,10 +20577,10 @@
         <v>49</v>
       </c>
       <c r="K12" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="201" t="s">
         <v>104</v>
-      </c>
-      <c r="L12" s="201" t="s">
-        <v>105</v>
       </c>
       <c r="M12" s="198" t="s">
         <v>26</v>
@@ -21094,7 +21094,7 @@
       <c r="J23" s="224"/>
       <c r="K23" s="221"/>
       <c r="L23" s="225" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M23" s="226">
         <f>SUM(K13:K22)</f>
@@ -21124,7 +21124,7 @@
       <c r="J24" s="184"/>
       <c r="K24" s="184"/>
       <c r="L24" s="225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="226">
         <f>SUM(L13:L22)</f>
@@ -21594,7 +21594,7 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="234" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="235"/>
       <c r="C1" s="235"/>
@@ -21620,14 +21620,14 @@
     </row>
     <row r="3" ht="23.45" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="236" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="236"/>
       <c r="C3" s="237" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="238" t="s">
         <v>108</v>
-      </c>
-      <c r="D3" s="238" t="s">
-        <v>109</v>
       </c>
       <c r="E3" s="238"/>
       <c r="F3" s="22"/>
@@ -21638,14 +21638,14 @@
     </row>
     <row r="4" ht="35.1" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="239" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="240"/>
       <c r="C4" s="241">
         <v>45476</v>
       </c>
       <c r="D4" s="242" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="243"/>
       <c r="F4" s="22"/>
@@ -21656,7 +21656,7 @@
     </row>
     <row r="5" ht="35.1" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="244" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="245"/>
       <c r="C5" s="246"/>
@@ -21730,7 +21730,7 @@
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="253" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="253"/>
       <c r="C11" s="22"/>
@@ -21744,13 +21744,13 @@
     </row>
     <row r="12" ht="25.35" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="254" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="255" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="255" t="s">
+      <c r="C12" s="256" t="s">
         <v>115</v>
-      </c>
-      <c r="C12" s="256" t="s">
-        <v>116</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -21765,10 +21765,10 @@
         <v>45322</v>
       </c>
       <c r="B13" s="258" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -21783,10 +21783,10 @@
         <v>45314</v>
       </c>
       <c r="B14" s="258" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -21801,10 +21801,10 @@
         <v>45307</v>
       </c>
       <c r="B15" s="258" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -21819,10 +21819,10 @@
         <v>45307</v>
       </c>
       <c r="B16" s="258" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -21837,10 +21837,10 @@
         <v>45307</v>
       </c>
       <c r="B17" s="258" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -21855,10 +21855,10 @@
         <v>45209</v>
       </c>
       <c r="B18" s="258" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -21873,10 +21873,10 @@
         <v>45202</v>
       </c>
       <c r="B19" s="258" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="259" t="s">
         <v>123</v>
-      </c>
-      <c r="C19" s="259" t="s">
-        <v>124</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -21891,10 +21891,10 @@
         <v>45202</v>
       </c>
       <c r="B20" s="258" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="259" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -21909,10 +21909,10 @@
         <v>45197</v>
       </c>
       <c r="B21" s="258" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="259" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -21927,10 +21927,10 @@
         <v>45176</v>
       </c>
       <c r="B22" s="258" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="259" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -21945,10 +21945,10 @@
         <v>45162</v>
       </c>
       <c r="B23" s="258" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="259" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -21959,10 +21959,10 @@
         <v>45153</v>
       </c>
       <c r="B24" s="258" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -21973,10 +21973,10 @@
         <v>45132</v>
       </c>
       <c r="B25" s="258" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="259" t="s">
         <v>130</v>
-      </c>
-      <c r="C25" s="259" t="s">
-        <v>131</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -21987,10 +21987,10 @@
         <v>45131</v>
       </c>
       <c r="B26" s="258" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="259" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -22001,10 +22001,10 @@
         <v>45131</v>
       </c>
       <c r="B27" s="258" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="259" t="s">
         <v>133</v>
-      </c>
-      <c r="C27" s="259" t="s">
-        <v>134</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -22015,10 +22015,10 @@
         <v>45130</v>
       </c>
       <c r="B28" s="258" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="259" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -22029,10 +22029,10 @@
         <v>45129</v>
       </c>
       <c r="B29" s="258" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="259" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -22043,10 +22043,10 @@
         <v>45128</v>
       </c>
       <c r="B30" s="258" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="259" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -22057,10 +22057,10 @@
         <v>44743</v>
       </c>
       <c r="B31" s="258" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="259" t="s">
         <v>138</v>
-      </c>
-      <c r="C31" s="259" t="s">
-        <v>139</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -22071,10 +22071,10 @@
         <v>45384</v>
       </c>
       <c r="B32" s="260" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -22085,10 +22085,10 @@
         <v>45411</v>
       </c>
       <c r="B33" s="258" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -22097,10 +22097,10 @@
     <row r="34" ht="35.1" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="261"/>
       <c r="B34" s="258" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -22111,10 +22111,10 @@
         <v>45443</v>
       </c>
       <c r="B35" s="258" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -22395,28 +22395,28 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="271" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="271" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="271" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" s="271" t="s">
-        <v>148</v>
       </c>
       <c r="E1" s="271" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="271" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="271" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="271" t="s">
+      <c r="H1" s="271" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" s="271" t="s">
-        <v>151</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -22435,10 +22435,10 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA1" s="7"/>
     </row>
@@ -22469,7 +22469,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA2" s="7"/>
     </row>
@@ -22479,22 +22479,22 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="272" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="272" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G3" s="273">
         <v>4513350</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" s="370"/>
       <c r="J3" s="7"/>
@@ -22514,7 +22514,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA3" s="7"/>
     </row>
@@ -22522,22 +22522,22 @@
       <c r="A4" s="274"/>
       <c r="B4" s="274"/>
       <c r="C4" s="272" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="272" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="273">
         <v>6024791</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="370"/>
       <c r="J4" s="7"/>
@@ -22561,7 +22561,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="275" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="275">
         <v>4001</v>
@@ -22596,7 +22596,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="275" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="275">
         <v>4002</v>
@@ -22631,7 +22631,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="275" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="275">
         <v>4003</v>
@@ -22666,7 +22666,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="275" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="275">
         <v>4004</v>
@@ -22701,7 +22701,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="275" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="275">
         <v>4005</v>
@@ -22736,7 +22736,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="275" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="275">
         <v>4006</v>
@@ -22771,7 +22771,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="275" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="275">
         <v>4007</v>
@@ -22806,7 +22806,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="275" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="275">
         <v>4008</v>
@@ -22896,28 +22896,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="271" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="271" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="271" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" s="271" t="s">
-        <v>148</v>
       </c>
       <c r="E1" s="271" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="271" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="271" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="271" t="s">
+      <c r="H1" s="271" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" s="271" t="s">
-        <v>151</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -22952,22 +22952,22 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="272" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="272" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G4" s="273">
         <v>4513350</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -22976,29 +22976,29 @@
       <c r="A5" s="274"/>
       <c r="B5" s="274"/>
       <c r="C5" s="272" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="272" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="273">
         <v>6024791</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="275" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="275">
         <v>4001</v>
@@ -23007,10 +23007,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="276"/>
       <c r="G6" s="276"/>
@@ -23020,7 +23020,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="275" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="275">
         <v>4002</v>
@@ -23029,10 +23029,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="276"/>
       <c r="G7" s="276"/>
@@ -23042,7 +23042,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="275" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="275">
         <v>4003</v>
@@ -23051,10 +23051,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="276"/>
       <c r="G8" s="276"/>
@@ -23064,7 +23064,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="275" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="275">
         <v>4004</v>
@@ -23073,10 +23073,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="276"/>
       <c r="G9" s="276"/>
@@ -23086,7 +23086,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="275" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="275">
         <v>4005</v>
@@ -23095,10 +23095,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="276"/>
       <c r="G10" s="276"/>
@@ -23108,7 +23108,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="275" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="275">
         <v>4006</v>
@@ -23117,10 +23117,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="276"/>
       <c r="G11" s="276"/>
@@ -23130,7 +23130,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="275" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="275">
         <v>4007</v>
@@ -23139,10 +23139,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="276"/>
       <c r="G12" s="276"/>
@@ -23152,7 +23152,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="275" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="275">
         <v>4008</v>
@@ -23161,10 +23161,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="276"/>
       <c r="G13" s="276"/>
@@ -23189,13 +23189,13 @@
         <v>26671696</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="18">
         <v>3000</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -23214,16 +23214,16 @@
         <v>38</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G15" s="18">
         <v>200000</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -23242,14 +23242,14 @@
         <v>35</v>
       </c>
       <c r="E16" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -23268,16 +23268,16 @@
         <v>40</v>
       </c>
       <c r="E17" s="276" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="18">
         <v>10951</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -23288,20 +23288,20 @@
         <v>1200</v>
       </c>
       <c r="C18" s="278" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="278" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="278" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" s="278"/>
       <c r="H18" s="278" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -23311,16 +23311,16 @@
         <v>4014</v>
       </c>
       <c r="C19" s="278" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="278" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -23328,16 +23328,16 @@
         <v>4013</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -23345,10 +23345,10 @@
         <v>4017</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23359,19 +23359,19 @@
         <v>4020</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="18"/>
     </row>
@@ -23380,13 +23380,13 @@
         <v>4019</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -23394,13 +23394,13 @@
         <v>4022</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -23408,13 +23408,13 @@
         <v>4040</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -23422,13 +23422,13 @@
         <v>4041</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -23436,13 +23436,13 @@
         <v>4042</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -23450,10 +23450,10 @@
         <v>4028</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -23464,7 +23464,7 @@
         <v>181</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -23475,7 +23475,7 @@
         <v>182</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -23486,7 +23486,7 @@
         <v>183</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -23497,7 +23497,7 @@
         <v>184</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -29809,7 +29809,7 @@
         <v>5695</v>
       </c>
       <c r="C374" s="360" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D374" s="365" t="s">
         <v>533</v>
@@ -30227,7 +30227,7 @@
         <v>5760</v>
       </c>
       <c r="C398" s="360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D398" s="365" t="s">
         <v>533</v>
@@ -30284,7 +30284,7 @@
         <v>5769</v>
       </c>
       <c r="C401" s="360" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D401" s="365" t="s">
         <v>533</v>
@@ -30320,7 +30320,7 @@
         <v>5771</v>
       </c>
       <c r="C403" s="360" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D403" s="365" t="s">
         <v>533</v>
@@ -30432,7 +30432,7 @@
         <v>5780</v>
       </c>
       <c r="C409" s="360" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D409" s="365" t="s">
         <v>533</v>
@@ -30498,7 +30498,7 @@
         <v>5784</v>
       </c>
       <c r="C413" s="360" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D413" s="365" t="s">
         <v>533</v>
@@ -30519,7 +30519,7 @@
         <v>5785</v>
       </c>
       <c r="C414" s="360" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="D414" s="365" t="s">
         <v>533</v>
@@ -31339,7 +31339,7 @@
       <c r="E462" s="358"/>
       <c r="F462" s="358"/>
       <c r="G462" s="367" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H462" s="358"/>
       <c r="I462" s="7"/>

--- a/files/ModifiedPurchaseOrder.xlsx
+++ b/files/ModifiedPurchaseOrder.xlsx
@@ -198,16 +198,16 @@
     <t>ESDC - GG</t>
   </si>
   <si>
-    <t>sigan adam</t>
-  </si>
-  <si>
-    <t>sigan@gmail.com</t>
+    <t xml:space="preserve">Seyit </t>
+  </si>
+  <si>
+    <t>se@tm.com</t>
   </si>
   <si>
     <t>Notes to Admin</t>
   </si>
   <si>
-    <t>Note no</t>
+    <t xml:space="preserve">note </t>
   </si>
   <si>
     <t>Source / Grant</t>
@@ -219,13 +219,13 @@
     <t>HST Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Gbimle </t>
-  </si>
-  <si>
-    <t>Hospitality/Food</t>
-  </si>
-  <si>
-    <t>cc</t>
+    <t>Gibmle</t>
+  </si>
+  <si>
+    <t>Project Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UEC CC </t>
   </si>
   <si>
     <t>UEC</t>
@@ -679,9 +679,6 @@
     <t>5646</t>
   </si>
   <si>
-    <t>Project Supplies</t>
-  </si>
-  <si>
     <t>5647</t>
   </si>
   <si>
@@ -725,6 +722,9 @@
   </si>
   <si>
     <t>Insurance</t>
+  </si>
+  <si>
+    <t>Hospitality/Food</t>
   </si>
   <si>
     <t>5693</t>
@@ -7757,7 +7757,7 @@
         <v>5646</v>
       </c>
       <c r="B10" s="345" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="C10" s="345"/>
       <c r="D10" s="284"/>
@@ -7773,7 +7773,7 @@
         <v>5647</v>
       </c>
       <c r="B11" s="343" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="343"/>
       <c r="D11" s="284"/>
@@ -7789,7 +7789,7 @@
         <v>5648</v>
       </c>
       <c r="B12" s="345" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="345"/>
       <c r="D12" s="284"/>
@@ -7805,7 +7805,7 @@
         <v>5651</v>
       </c>
       <c r="B13" s="343" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" s="343"/>
       <c r="D13" s="284"/>
@@ -7821,7 +7821,7 @@
         <v>5652</v>
       </c>
       <c r="B14" s="343" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="343"/>
       <c r="D14" s="284"/>
@@ -7837,7 +7837,7 @@
         <v>5660</v>
       </c>
       <c r="B15" s="345" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="345"/>
       <c r="D15" s="284"/>
@@ -7869,7 +7869,7 @@
         <v>5671</v>
       </c>
       <c r="B17" s="343" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="343"/>
       <c r="D17" s="284"/>
@@ -7885,7 +7885,7 @@
         <v>5672</v>
       </c>
       <c r="B18" s="345" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="345"/>
       <c r="D18" s="284"/>
@@ -7973,7 +7973,7 @@
         <v>5672</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -8135,7 +8135,7 @@
         <v>5850</v>
       </c>
       <c r="B34" s="343" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="C34" s="343"/>
       <c r="D34" s="284"/>
@@ -8419,52 +8419,52 @@
         <v>209</v>
       </c>
       <c r="I64" s="285" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" s="285" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" s="285" t="s">
         <v>211</v>
-      </c>
-      <c r="I65" s="285" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" s="285" t="s">
+        <v>212</v>
+      </c>
+      <c r="I66" s="285" t="s">
         <v>213</v>
-      </c>
-      <c r="I66" s="285" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="285" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="285" t="s">
         <v>215</v>
-      </c>
-      <c r="I67" s="285" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" s="285" t="s">
+        <v>216</v>
+      </c>
+      <c r="I68" s="285" t="s">
         <v>217</v>
-      </c>
-      <c r="I68" s="285" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" s="285" t="s">
+        <v>218</v>
+      </c>
+      <c r="I69" s="285" t="s">
         <v>219</v>
-      </c>
-      <c r="I69" s="285" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" s="285" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I70" s="287" t="s">
         <v>197</v>
@@ -8472,18 +8472,18 @@
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71" s="285" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I71" s="285" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72" s="285" t="s">
+        <v>223</v>
+      </c>
+      <c r="I72" s="285" t="s">
         <v>224</v>
-      </c>
-      <c r="I72" s="285" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
@@ -8611,7 +8611,7 @@
         <v>257</v>
       </c>
       <c r="I88" s="285" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
@@ -10260,7 +10260,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="67">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="J12" s="67">
         <f>I12*H12*0.15</f>
@@ -17717,7 +17717,7 @@
         <v>209</v>
       </c>
       <c r="I9" s="285" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="J9" s="285" t="s">
         <v>194</v>
@@ -17733,10 +17733,10 @@
       <c r="C10" s="284"/>
       <c r="D10" s="284"/>
       <c r="H10" s="285" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" s="285" t="s">
         <v>211</v>
-      </c>
-      <c r="I10" s="285" t="s">
-        <v>212</v>
       </c>
       <c r="J10" s="285" t="s">
         <v>194</v>
@@ -17752,10 +17752,10 @@
       <c r="C11" s="284"/>
       <c r="D11" s="284"/>
       <c r="H11" s="285" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="285" t="s">
         <v>213</v>
-      </c>
-      <c r="I11" s="285" t="s">
-        <v>214</v>
       </c>
       <c r="J11" s="285" t="s">
         <v>194</v>
@@ -17771,10 +17771,10 @@
       <c r="C12" s="284"/>
       <c r="D12" s="284"/>
       <c r="H12" s="285" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="285" t="s">
         <v>215</v>
-      </c>
-      <c r="I12" s="285" t="s">
-        <v>216</v>
       </c>
       <c r="J12" s="285" t="s">
         <v>191</v>
@@ -17785,15 +17785,15 @@
         <v>5647</v>
       </c>
       <c r="B13" s="284" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="284"/>
       <c r="D13" s="284"/>
       <c r="H13" s="285" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="285" t="s">
         <v>217</v>
-      </c>
-      <c r="I13" s="285" t="s">
-        <v>218</v>
       </c>
       <c r="J13" s="285" t="s">
         <v>194</v>
@@ -17804,15 +17804,15 @@
         <v>5648</v>
       </c>
       <c r="B14" s="284" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="284"/>
       <c r="D14" s="284"/>
       <c r="H14" s="285" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="285" t="s">
         <v>219</v>
-      </c>
-      <c r="I14" s="285" t="s">
-        <v>220</v>
       </c>
       <c r="J14" s="285" t="s">
         <v>194</v>
@@ -17823,12 +17823,12 @@
         <v>5651</v>
       </c>
       <c r="B15" s="284" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="284"/>
       <c r="D15" s="284"/>
       <c r="H15" s="285" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I15" s="287" t="s">
         <v>197</v>
@@ -17842,15 +17842,15 @@
         <v>5671</v>
       </c>
       <c r="B16" s="284" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" s="284"/>
       <c r="D16" s="284"/>
       <c r="H16" s="285" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I16" s="285" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J16" s="285" t="s">
         <v>194</v>
@@ -17861,15 +17861,15 @@
         <v>5652</v>
       </c>
       <c r="B17" s="284" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="284"/>
       <c r="D17" s="284"/>
       <c r="H17" s="285" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="285" t="s">
         <v>224</v>
-      </c>
-      <c r="I17" s="285" t="s">
-        <v>225</v>
       </c>
       <c r="J17" s="285" t="s">
         <v>194</v>
@@ -17880,7 +17880,7 @@
         <v>5850</v>
       </c>
       <c r="B18" s="289" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="C18" s="289"/>
       <c r="D18" s="289"/>
@@ -17899,7 +17899,7 @@
         <v>5672</v>
       </c>
       <c r="B19" s="284" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="284"/>
       <c r="D19" s="284"/>
@@ -17994,7 +17994,7 @@
         <v>5660</v>
       </c>
       <c r="B24" s="284" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="284"/>
       <c r="D24" s="284"/>
@@ -18013,7 +18013,7 @@
         <v>5646</v>
       </c>
       <c r="B25" s="284" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="C25" s="284"/>
       <c r="D25" s="284"/>
@@ -18173,7 +18173,7 @@
         <v>257</v>
       </c>
       <c r="I33" s="285" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="J33" s="285" t="s">
         <v>230</v>
@@ -29496,7 +29496,7 @@
         <v>5672</v>
       </c>
       <c r="C357" s="360" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D357" s="365" t="s">
         <v>533</v>
